--- a/outputs/february.xlsx
+++ b/outputs/february.xlsx
@@ -3009,7 +3009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3063,6 +3063,51 @@
           <t>Time</t>
         </is>
       </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Latest</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>%Change</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3096,6 +3141,37 @@
           <t>02/09/26</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>68709.88</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>-1465.46</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>70169.09</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>70693.48</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>67997.78999999999</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>172796659</v>
+      </c>
+      <c r="T2" s="4" t="inlineStr">
+        <is>
+          <t>02/10/26</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3127,6 +3203,37 @@
           <t>02/10/26</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>DXY</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>96.86</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v/>
+      </c>
+      <c r="T3" s="4" t="inlineStr">
+        <is>
+          <t>17:38 ET</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3160,6 +3267,37 @@
           <t>02/09/26</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>EURGBP</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>0.87191</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>0.00184</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>0.8700599999999999</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>0.87218</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>0.86863</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>485093</v>
+      </c>
+      <c r="T4" s="4" t="inlineStr">
+        <is>
+          <t>02/10/26</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3193,6 +3331,37 @@
           <t>02/09/26</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>AUDCHF</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>0.5435</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v/>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v/>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>0.5435</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>0.5441</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>0.5397999999999999</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>697225</v>
+      </c>
+      <c r="T5" s="4" t="inlineStr">
+        <is>
+          <t>02/10/26</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3226,6 +3395,37 @@
           <t>02/09/26</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>1.35523</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>-0.00043</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>1.35568</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>1.35764</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>1.35234</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>274047</v>
+      </c>
+      <c r="T6" s="4" t="inlineStr">
+        <is>
+          <t>02/10/26</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3259,6 +3459,37 @@
           <t>02/09/26</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>0.95884</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>-0.00284</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>0.96167</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>0.96256</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>0.9567600000000001</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>280722</v>
+      </c>
+      <c r="T7" s="4" t="inlineStr">
+        <is>
+          <t>02/10/26</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3292,6 +3523,37 @@
           <t>12/19/25</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>NQZ25</t>
+        </is>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>25132.79</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>104.54</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>25002.5</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>25160</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>24977.5</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>6987</v>
+      </c>
+      <c r="T8" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3325,6 +3587,37 @@
           <t>12/19/25</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ESZ25</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>6796.54</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>6772.25</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>6802.75</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>6768</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>22237</v>
+      </c>
+      <c r="T9" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3358,6 +3651,37 @@
           <t>02/09/26</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>XAGUSD</t>
+        </is>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>80.791</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>-2.556</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>83.346</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>83.986</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>80.018</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>173522</v>
+      </c>
+      <c r="T10" s="4" t="inlineStr">
+        <is>
+          <t>02/10/26</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3391,6 +3715,37 @@
           <t>02/09/26</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>5024.73</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>-33.44</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>5058.16</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>5078.04</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>4992.1</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>164792</v>
+      </c>
+      <c r="T11" s="4" t="inlineStr">
+        <is>
+          <t>02/10/26</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3424,6 +3779,37 @@
           <t>02/09/26</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>CADCHF</t>
+        </is>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>0.5668</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>0.5652</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>0.5638</v>
+      </c>
+      <c r="S12" s="3" t="n">
+        <v>265454</v>
+      </c>
+      <c r="T12" s="4" t="inlineStr">
+        <is>
+          <t>02/10/26</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3457,6 +3843,37 @@
           <t>02/09/26</t>
         </is>
       </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>EURCAD</t>
+        </is>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>1.61204</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>-0.0033</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>1.61534</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>1.61646</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>1.60993</v>
+      </c>
+      <c r="S13" s="3" t="n">
+        <v>367985</v>
+      </c>
+      <c r="T13" s="4" t="inlineStr">
+        <is>
+          <t>02/10/26</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3490,6 +3907,37 @@
           <t>02/09/26</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>154.38</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>-1.504</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>155.882</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>156.294</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>154.057</v>
+      </c>
+      <c r="S14" s="3" t="n">
+        <v>547507</v>
+      </c>
+      <c r="T14" s="4" t="inlineStr">
+        <is>
+          <t>02/10/26</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3523,6 +3971,37 @@
           <t>02/09/26</t>
         </is>
       </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>EURCHF</t>
+        </is>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>0.91367</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>0.91303</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>0.91399</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>0.9095</v>
+      </c>
+      <c r="S15" s="3" t="n">
+        <v>385912</v>
+      </c>
+      <c r="T15" s="4" t="inlineStr">
+        <is>
+          <t>02/10/26</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3554,6 +4033,37 @@
       <c r="I16" s="4" t="inlineStr">
         <is>
           <t>02/09/26</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>USDCHF</t>
+        </is>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>0.7681</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>0.00188</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>0.76623</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>0.76878</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>0.76293</v>
+      </c>
+      <c r="S16" s="3" t="n">
+        <v>345466</v>
+      </c>
+      <c r="T16" s="4" t="inlineStr">
+        <is>
+          <t>02/10/26</t>
         </is>
       </c>
     </row>

--- a/outputs/february.xlsx
+++ b/outputs/february.xlsx
@@ -3226,9 +3226,7 @@
       <c r="R3" s="1" t="n">
         <v>96.61</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -3339,12 +3337,8 @@
       <c r="M5" s="1" t="n">
         <v>0.5435</v>
       </c>
-      <c r="N5" s="1" t="n">
-        <v/>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v/>
-      </c>
+      <c r="N5" s="1" t="n"/>
+      <c r="O5" s="2" t="n"/>
       <c r="P5" s="1" t="n">
         <v>0.5435</v>
       </c>

--- a/outputs/february.xlsx
+++ b/outputs/february.xlsx
@@ -3009,7 +3009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3108,6 +3108,51 @@
           <t>Time</t>
         </is>
       </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Latest</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>%Change</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3172,6 +3217,37 @@
           <t>02/10/26</t>
         </is>
       </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>67872.42</v>
+      </c>
+      <c r="Y2" s="1" t="n">
+        <v>-837.46</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="AA2" s="1" t="n">
+        <v>68838.66</v>
+      </c>
+      <c r="AB2" s="1" t="n">
+        <v>69239.08</v>
+      </c>
+      <c r="AC2" s="1" t="n">
+        <v>65846.75999999999</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>198612063</v>
+      </c>
+      <c r="AE2" s="4" t="inlineStr">
+        <is>
+          <t>02/11/26</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3232,6 +3308,37 @@
           <t>17:38 ET</t>
         </is>
       </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>DXY</t>
+        </is>
+      </c>
+      <c r="X3" s="1" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z3" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA3" s="1" t="n">
+        <v>96.91</v>
+      </c>
+      <c r="AB3" s="1" t="n">
+        <v>97.27</v>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>96.48999999999999</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AE3" s="4" t="inlineStr">
+        <is>
+          <t>17:38 ET</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3294,6 +3401,37 @@
       <c r="T4" s="4" t="inlineStr">
         <is>
           <t>02/10/26</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>EURGBP</t>
+        </is>
+      </c>
+      <c r="X4" s="1" t="n">
+        <v>0.8711100000000001</v>
+      </c>
+      <c r="Y4" s="1" t="n">
+        <v>-0.0008</v>
+      </c>
+      <c r="Z4" s="2" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="AA4" s="1" t="n">
+        <v>0.8719</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>0.87239</v>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>0.86831</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>521505</v>
+      </c>
+      <c r="AE4" s="4" t="inlineStr">
+        <is>
+          <t>02/11/26</t>
         </is>
       </c>
     </row>
@@ -3356,6 +3494,37 @@
           <t>02/10/26</t>
         </is>
       </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>AUDCHF</t>
+        </is>
+      </c>
+      <c r="X5" s="1" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="Y5" s="1" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="Z5" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA5" s="1" t="n">
+        <v>0.5435</v>
+      </c>
+      <c r="AB5" s="1" t="n">
+        <v>0.5504</v>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>0.5419</v>
+      </c>
+      <c r="AD5" s="3" t="n">
+        <v>798922</v>
+      </c>
+      <c r="AE5" s="4" t="inlineStr">
+        <is>
+          <t>02/11/26</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3420,6 +3589,37 @@
           <t>02/10/26</t>
         </is>
       </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>1.35765</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>0.00242</v>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AA6" s="1" t="n">
+        <v>1.35523</v>
+      </c>
+      <c r="AB6" s="1" t="n">
+        <v>1.36189</v>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>1.35044</v>
+      </c>
+      <c r="AD6" s="3" t="n">
+        <v>323843</v>
+      </c>
+      <c r="AE6" s="4" t="inlineStr">
+        <is>
+          <t>02/11/26</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3484,6 +3684,37 @@
           <t>02/10/26</t>
         </is>
       </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="X7" s="1" t="n">
+        <v>0.96765</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>0.00881</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AA7" s="1" t="n">
+        <v>0.95885</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>0.96829</v>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>0.95731</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>336024</v>
+      </c>
+      <c r="AE7" s="4" t="inlineStr">
+        <is>
+          <t>02/11/26</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3548,6 +3779,37 @@
           <t>12/19/25</t>
         </is>
       </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>NQZ25</t>
+        </is>
+      </c>
+      <c r="X8" s="1" t="n">
+        <v>25132.79</v>
+      </c>
+      <c r="Y8" s="1" t="n">
+        <v>104.54</v>
+      </c>
+      <c r="Z8" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AA8" s="1" t="n">
+        <v>25002.5</v>
+      </c>
+      <c r="AB8" s="1" t="n">
+        <v>25160</v>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>24977.5</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>6987</v>
+      </c>
+      <c r="AE8" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3612,6 +3874,37 @@
           <t>12/19/25</t>
         </is>
       </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>ESZ25</t>
+        </is>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>6796.54</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AA9" s="1" t="n">
+        <v>6772.25</v>
+      </c>
+      <c r="AB9" s="1" t="n">
+        <v>6802.75</v>
+      </c>
+      <c r="AC9" s="1" t="n">
+        <v>6768</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>22237</v>
+      </c>
+      <c r="AE9" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3676,6 +3969,37 @@
           <t>02/10/26</t>
         </is>
       </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>XAGUSD</t>
+        </is>
+      </c>
+      <c r="X10" s="1" t="n">
+        <v>84.282</v>
+      </c>
+      <c r="Y10" s="1" t="n">
+        <v>3.491</v>
+      </c>
+      <c r="Z10" s="2" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="AA10" s="1" t="n">
+        <v>80.791</v>
+      </c>
+      <c r="AB10" s="1" t="n">
+        <v>86.28700000000001</v>
+      </c>
+      <c r="AC10" s="1" t="n">
+        <v>80.791</v>
+      </c>
+      <c r="AD10" s="3" t="n">
+        <v>186129</v>
+      </c>
+      <c r="AE10" s="4" t="inlineStr">
+        <is>
+          <t>02/11/26</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3740,6 +4064,37 @@
           <t>02/10/26</t>
         </is>
       </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="X11" s="1" t="n">
+        <v>5084.53</v>
+      </c>
+      <c r="Y11" s="1" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="Z11" s="2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA11" s="1" t="n">
+        <v>5024.81</v>
+      </c>
+      <c r="AB11" s="1" t="n">
+        <v>5117.94</v>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>5024.35</v>
+      </c>
+      <c r="AD11" s="3" t="n">
+        <v>162800</v>
+      </c>
+      <c r="AE11" s="4" t="inlineStr">
+        <is>
+          <t>02/11/26</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3804,6 +4159,37 @@
           <t>02/10/26</t>
         </is>
       </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>CADCHF</t>
+        </is>
+      </c>
+      <c r="X12" s="1" t="n">
+        <v>0.5685</v>
+      </c>
+      <c r="Y12" s="1" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="Z12" s="2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA12" s="1" t="n">
+        <v>0.5667</v>
+      </c>
+      <c r="AB12" s="1" t="n">
+        <v>0.5688</v>
+      </c>
+      <c r="AC12" s="1" t="n">
+        <v>0.5656</v>
+      </c>
+      <c r="AD12" s="3" t="n">
+        <v>298327</v>
+      </c>
+      <c r="AE12" s="4" t="inlineStr">
+        <is>
+          <t>02/11/26</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3868,6 +4254,37 @@
           <t>02/10/26</t>
         </is>
       </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>EURCAD</t>
+        </is>
+      </c>
+      <c r="X13" s="1" t="n">
+        <v>1.61169</v>
+      </c>
+      <c r="Y13" s="1" t="n">
+        <v>-0.00035</v>
+      </c>
+      <c r="Z13" s="2" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AA13" s="1" t="n">
+        <v>1.61203</v>
+      </c>
+      <c r="AB13" s="1" t="n">
+        <v>1.61477</v>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>1.60918</v>
+      </c>
+      <c r="AD13" s="3" t="n">
+        <v>412876</v>
+      </c>
+      <c r="AE13" s="4" t="inlineStr">
+        <is>
+          <t>02/11/26</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3932,6 +4349,37 @@
           <t>02/10/26</t>
         </is>
       </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="X14" s="1" t="n">
+        <v>153.266</v>
+      </c>
+      <c r="Y14" s="1" t="n">
+        <v>-1.114</v>
+      </c>
+      <c r="Z14" s="2" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="AA14" s="1" t="n">
+        <v>154.376</v>
+      </c>
+      <c r="AB14" s="1" t="n">
+        <v>154.645</v>
+      </c>
+      <c r="AC14" s="1" t="n">
+        <v>152.556</v>
+      </c>
+      <c r="AD14" s="3" t="n">
+        <v>580678</v>
+      </c>
+      <c r="AE14" s="4" t="inlineStr">
+        <is>
+          <t>02/11/26</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3996,6 +4444,37 @@
           <t>02/10/26</t>
         </is>
       </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>EURCHF</t>
+        </is>
+      </c>
+      <c r="X15" s="1" t="n">
+        <v>0.91613</v>
+      </c>
+      <c r="Y15" s="1" t="n">
+        <v>0.00246</v>
+      </c>
+      <c r="Z15" s="2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AA15" s="1" t="n">
+        <v>0.91366</v>
+      </c>
+      <c r="AB15" s="1" t="n">
+        <v>0.91694</v>
+      </c>
+      <c r="AC15" s="1" t="n">
+        <v>0.91183</v>
+      </c>
+      <c r="AD15" s="3" t="n">
+        <v>436687</v>
+      </c>
+      <c r="AE15" s="4" t="inlineStr">
+        <is>
+          <t>02/11/26</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4058,6 +4537,37 @@
       <c r="T16" s="4" t="inlineStr">
         <is>
           <t>02/10/26</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>USDCHF</t>
+        </is>
+      </c>
+      <c r="X16" s="1" t="n">
+        <v>0.77172</v>
+      </c>
+      <c r="Y16" s="1" t="n">
+        <v>0.00362</v>
+      </c>
+      <c r="Z16" s="2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AA16" s="1" t="n">
+        <v>0.7681</v>
+      </c>
+      <c r="AB16" s="1" t="n">
+        <v>0.77303</v>
+      </c>
+      <c r="AC16" s="1" t="n">
+        <v>0.76484</v>
+      </c>
+      <c r="AD16" s="3" t="n">
+        <v>399079</v>
+      </c>
+      <c r="AE16" s="4" t="inlineStr">
+        <is>
+          <t>02/11/26</t>
         </is>
       </c>
     </row>

--- a/outputs/february.xlsx
+++ b/outputs/february.xlsx
@@ -3331,9 +3331,7 @@
       <c r="AC3" s="1" t="n">
         <v>96.48999999999999</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>

--- a/outputs/february.xlsx
+++ b/outputs/february.xlsx
@@ -666,7 +666,7 @@
         <v>-6009.16</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-7.12</v>
+        <v>-0.0712</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>77018.11</v>
@@ -697,7 +697,7 @@
         <v>-2115.53</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>-2.7</v>
+        <v>-0.027</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>78758.53</v>
@@ -728,7 +728,7 @@
         <v>-3474.46</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>-4.56</v>
+        <v>-0.04559999999999999</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>75710.98</v>
@@ -759,7 +759,7 @@
         <v>-9475.58</v>
       </c>
       <c r="AK2" s="2" t="n">
-        <v>-13.02</v>
+        <v>-0.1302</v>
       </c>
       <c r="AL2" s="1" t="n">
         <v>73165.23</v>
@@ -790,7 +790,7 @@
         <v>7057.19</v>
       </c>
       <c r="AV2" s="2" t="n">
-        <v>11.15</v>
+        <v>0.1115</v>
       </c>
       <c r="AW2" s="1" t="n">
         <v>63093.11</v>
@@ -834,7 +834,9 @@
       <c r="G3" s="1" t="n">
         <v>97.01000000000001</v>
       </c>
-      <c r="H3" s="3" t="n"/>
+      <c r="H3" s="3" t="n">
+        <v/>
+      </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>02/03/26</t>
@@ -863,7 +865,9 @@
       <c r="R3" s="1" t="n">
         <v>97.3</v>
       </c>
-      <c r="S3" s="3" t="n"/>
+      <c r="S3" s="3" t="n">
+        <v/>
+      </c>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -892,7 +896,9 @@
       <c r="AC3" s="1" t="n">
         <v>97.31</v>
       </c>
-      <c r="AD3" s="3" t="n"/>
+      <c r="AD3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -921,7 +927,9 @@
       <c r="AN3" s="1" t="n">
         <v>97.61</v>
       </c>
-      <c r="AO3" s="3" t="n"/>
+      <c r="AO3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -950,7 +958,9 @@
       <c r="AY3" s="1" t="n">
         <v>97.56</v>
       </c>
-      <c r="AZ3" s="3" t="n"/>
+      <c r="AZ3" s="3" t="n">
+        <v/>
+      </c>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>02/06/26</t>
@@ -1565,7 +1575,7 @@
         <v>0.00967</v>
       </c>
       <c r="AV7" s="2" t="n">
-        <v>1.02</v>
+        <v>0.0102</v>
       </c>
       <c r="AW7" s="1" t="n">
         <v>0.94965</v>
@@ -1912,7 +1922,7 @@
         <v>-6.025</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-7.06</v>
+        <v>-0.0706</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>80.795</v>
@@ -1943,7 +1953,7 @@
         <v>6.021</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>7.6</v>
+        <v>0.076</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>79.271</v>
@@ -1974,7 +1984,7 @@
         <v>2.9</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>3.4</v>
+        <v>0.034</v>
       </c>
       <c r="AA10" s="1" t="n">
         <v>85.294</v>
@@ -2005,7 +2015,7 @@
         <v>-17.227</v>
       </c>
       <c r="AK10" s="2" t="n">
-        <v>-19.53</v>
+        <v>-0.1953</v>
       </c>
       <c r="AL10" s="1" t="n">
         <v>88.19199999999999</v>
@@ -2036,7 +2046,7 @@
         <v>6.908</v>
       </c>
       <c r="AV10" s="2" t="n">
-        <v>9.73</v>
+        <v>0.0973</v>
       </c>
       <c r="AW10" s="1" t="n">
         <v>70.967</v>
@@ -2069,7 +2079,7 @@
         <v>-231.7</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-4.74</v>
+        <v>-0.0474</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>4879.2</v>
@@ -2100,7 +2110,7 @@
         <v>286.25</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>6.14</v>
+        <v>0.0614</v>
       </c>
       <c r="P11" s="1" t="n">
         <v>4660.74</v>
@@ -2162,7 +2172,7 @@
         <v>-185.66</v>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>-3.74</v>
+        <v>-0.0374</v>
       </c>
       <c r="AL11" s="1" t="n">
         <v>4965.2</v>
@@ -2193,7 +2203,7 @@
         <v>187.04</v>
       </c>
       <c r="AV11" s="2" t="n">
-        <v>3.91</v>
+        <v>0.0391</v>
       </c>
       <c r="AW11" s="1" t="n">
         <v>4779.56</v>
@@ -3198,7 +3208,7 @@
         <v>-1465.46</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>-2.09</v>
+        <v>-0.0209</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>70169.09</v>
@@ -3229,7 +3239,7 @@
         <v>-837.46</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>-1.22</v>
+        <v>-0.0122</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>68838.66</v>
@@ -3273,7 +3283,9 @@
       <c r="G3" s="1" t="n">
         <v>96.79000000000001</v>
       </c>
-      <c r="H3" s="3" t="n"/>
+      <c r="H3" s="3" t="n">
+        <v/>
+      </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>02/10/26</t>
@@ -3302,7 +3314,9 @@
       <c r="R3" s="1" t="n">
         <v>96.61</v>
       </c>
-      <c r="S3" s="3" t="n"/>
+      <c r="S3" s="3" t="n">
+        <v/>
+      </c>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -3331,7 +3345,9 @@
       <c r="AC3" s="1" t="n">
         <v>96.48999999999999</v>
       </c>
-      <c r="AD3" s="3" t="n"/>
+      <c r="AD3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -3473,8 +3489,12 @@
       <c r="M5" s="1" t="n">
         <v>0.5435</v>
       </c>
-      <c r="N5" s="1" t="n"/>
-      <c r="O5" s="2" t="n"/>
+      <c r="N5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="P5" s="1" t="n">
         <v>0.5435</v>
       </c>
@@ -3504,7 +3524,7 @@
         <v>0.0065</v>
       </c>
       <c r="Z5" s="2" t="n">
-        <v>1.2</v>
+        <v>0.012</v>
       </c>
       <c r="AA5" s="1" t="n">
         <v>0.5435</v>
@@ -3917,7 +3937,7 @@
         <v>5.474</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>7.03</v>
+        <v>0.0703</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>77.96299999999999</v>
@@ -3948,7 +3968,7 @@
         <v>-2.556</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>-3.07</v>
+        <v>-0.0307</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>83.346</v>
@@ -3979,7 +3999,7 @@
         <v>3.491</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>4.32</v>
+        <v>0.0432</v>
       </c>
       <c r="AA10" s="1" t="n">
         <v>80.791</v>
@@ -4012,7 +4032,7 @@
         <v>91.56</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1.84</v>
+        <v>0.0184</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>4968.43</v>
@@ -4074,7 +4094,7 @@
         <v>59.8</v>
       </c>
       <c r="Z11" s="2" t="n">
-        <v>1.19</v>
+        <v>0.0119</v>
       </c>
       <c r="AA11" s="1" t="n">
         <v>5024.81</v>
@@ -4487,7 +4507,7 @@
         <v>-0.00957</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-1.23</v>
+        <v>-0.0123</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>0.77693</v>

--- a/outputs/february.xlsx
+++ b/outputs/february.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00&quot;%&quot;"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -50,7 +52,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -666,7 +668,7 @@
         <v>-6009.16</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.0712</v>
+        <v>-7.12</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>77018.11</v>
@@ -697,7 +699,7 @@
         <v>-2115.53</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>-0.027</v>
+        <v>-2.7</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>78758.53</v>
@@ -728,7 +730,7 @@
         <v>-3474.46</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>-0.04559999999999999</v>
+        <v>-4.56</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>75710.98</v>
@@ -759,7 +761,7 @@
         <v>-9475.58</v>
       </c>
       <c r="AK2" s="2" t="n">
-        <v>-0.1302</v>
+        <v>-13.02</v>
       </c>
       <c r="AL2" s="1" t="n">
         <v>73165.23</v>
@@ -790,7 +792,7 @@
         <v>7057.19</v>
       </c>
       <c r="AV2" s="2" t="n">
-        <v>0.1115</v>
+        <v>11.15</v>
       </c>
       <c r="AW2" s="1" t="n">
         <v>63093.11</v>
@@ -1575,7 +1577,7 @@
         <v>0.00967</v>
       </c>
       <c r="AV7" s="2" t="n">
-        <v>0.0102</v>
+        <v>1.02</v>
       </c>
       <c r="AW7" s="1" t="n">
         <v>0.94965</v>
@@ -1922,7 +1924,7 @@
         <v>-6.025</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.0706</v>
+        <v>-7.06</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>80.795</v>
@@ -1953,7 +1955,7 @@
         <v>6.021</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0.076</v>
+        <v>7.6</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>79.271</v>
@@ -1984,7 +1986,7 @@
         <v>2.9</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>0.034</v>
+        <v>3.4</v>
       </c>
       <c r="AA10" s="1" t="n">
         <v>85.294</v>
@@ -2015,7 +2017,7 @@
         <v>-17.227</v>
       </c>
       <c r="AK10" s="2" t="n">
-        <v>-0.1953</v>
+        <v>-19.53</v>
       </c>
       <c r="AL10" s="1" t="n">
         <v>88.19199999999999</v>
@@ -2046,7 +2048,7 @@
         <v>6.908</v>
       </c>
       <c r="AV10" s="2" t="n">
-        <v>0.0973</v>
+        <v>9.73</v>
       </c>
       <c r="AW10" s="1" t="n">
         <v>70.967</v>
@@ -2079,7 +2081,7 @@
         <v>-231.7</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.0474</v>
+        <v>-4.74</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>4879.2</v>
@@ -2110,7 +2112,7 @@
         <v>286.25</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>0.0614</v>
+        <v>6.14</v>
       </c>
       <c r="P11" s="1" t="n">
         <v>4660.74</v>
@@ -2172,7 +2174,7 @@
         <v>-185.66</v>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>-0.0374</v>
+        <v>-3.74</v>
       </c>
       <c r="AL11" s="1" t="n">
         <v>4965.2</v>
@@ -2203,7 +2205,7 @@
         <v>187.04</v>
       </c>
       <c r="AV11" s="2" t="n">
-        <v>0.0391</v>
+        <v>3.91</v>
       </c>
       <c r="AW11" s="1" t="n">
         <v>4779.56</v>
@@ -3208,7 +3210,7 @@
         <v>-1465.46</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>-0.0209</v>
+        <v>-2.09</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>70169.09</v>
@@ -3239,7 +3241,7 @@
         <v>-837.46</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>-0.0122</v>
+        <v>-1.22</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>68838.66</v>
@@ -3524,7 +3526,7 @@
         <v>0.0065</v>
       </c>
       <c r="Z5" s="2" t="n">
-        <v>0.012</v>
+        <v>1.2</v>
       </c>
       <c r="AA5" s="1" t="n">
         <v>0.5435</v>
@@ -3937,7 +3939,7 @@
         <v>5.474</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.0703</v>
+        <v>7.03</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>77.96299999999999</v>
@@ -3968,7 +3970,7 @@
         <v>-2.556</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>-0.0307</v>
+        <v>-3.07</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>83.346</v>
@@ -3999,7 +4001,7 @@
         <v>3.491</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>0.0432</v>
+        <v>4.32</v>
       </c>
       <c r="AA10" s="1" t="n">
         <v>80.791</v>
@@ -4032,7 +4034,7 @@
         <v>91.56</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.0184</v>
+        <v>1.84</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>4968.43</v>
@@ -4094,7 +4096,7 @@
         <v>59.8</v>
       </c>
       <c r="Z11" s="2" t="n">
-        <v>0.0119</v>
+        <v>1.19</v>
       </c>
       <c r="AA11" s="1" t="n">
         <v>5024.81</v>
@@ -4507,7 +4509,7 @@
         <v>-0.00957</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.0123</v>
+        <v>-1.23</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>0.77693</v>

--- a/outputs/february.xlsx
+++ b/outputs/february.xlsx
@@ -836,9 +836,7 @@
       <c r="G3" s="1" t="n">
         <v>97.01000000000001</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>02/03/26</t>
@@ -867,9 +865,7 @@
       <c r="R3" s="1" t="n">
         <v>97.3</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -898,9 +894,7 @@
       <c r="AC3" s="1" t="n">
         <v>97.31</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -929,9 +923,7 @@
       <c r="AN3" s="1" t="n">
         <v>97.61</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -960,9 +952,7 @@
       <c r="AY3" s="1" t="n">
         <v>97.56</v>
       </c>
-      <c r="AZ3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AZ3" s="3" t="n"/>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>02/06/26</t>
@@ -3021,7 +3011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE16"/>
+  <dimension ref="A1:AP16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3165,6 +3155,51 @@
           <t>Time</t>
         </is>
       </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>Latest</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>%Change</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3260,6 +3295,37 @@
           <t>02/11/26</t>
         </is>
       </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+      <c r="AI2" s="1" t="n">
+        <v>65807.73</v>
+      </c>
+      <c r="AJ2" s="1" t="n">
+        <v>-2064.69</v>
+      </c>
+      <c r="AK2" s="2" t="n">
+        <v>-3.04</v>
+      </c>
+      <c r="AL2" s="1" t="n">
+        <v>67046.73</v>
+      </c>
+      <c r="AM2" s="1" t="n">
+        <v>68430.16</v>
+      </c>
+      <c r="AN2" s="1" t="n">
+        <v>65246.22</v>
+      </c>
+      <c r="AO2" s="3" t="n">
+        <v>180166471</v>
+      </c>
+      <c r="AP2" s="4" t="inlineStr">
+        <is>
+          <t>02/12/26</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3285,9 +3351,7 @@
       <c r="G3" s="1" t="n">
         <v>96.79000000000001</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>02/10/26</t>
@@ -3316,9 +3380,7 @@
       <c r="R3" s="1" t="n">
         <v>96.61</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -3347,10 +3409,39 @@
       <c r="AC3" s="1" t="n">
         <v>96.48999999999999</v>
       </c>
-      <c r="AD3" s="3" t="n">
+      <c r="AD3" s="3" t="n"/>
+      <c r="AE3" s="4" t="inlineStr">
+        <is>
+          <t>17:38 ET</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>DXY</t>
+        </is>
+      </c>
+      <c r="AI3" s="1" t="n">
+        <v>96.92</v>
+      </c>
+      <c r="AJ3" s="1" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AK3" s="2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AL3" s="1" t="n">
+        <v>96.95999999999999</v>
+      </c>
+      <c r="AM3" s="1" t="n">
+        <v>97.06999999999999</v>
+      </c>
+      <c r="AN3" s="1" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="AO3" s="3" t="n">
         <v/>
       </c>
-      <c r="AE3" s="4" t="inlineStr">
+      <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
         </is>
@@ -3450,6 +3541,37 @@
           <t>02/11/26</t>
         </is>
       </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>EURGBP</t>
+        </is>
+      </c>
+      <c r="AI4" s="1" t="n">
+        <v>0.87144</v>
+      </c>
+      <c r="AJ4" s="1" t="n">
+        <v>0.00033</v>
+      </c>
+      <c r="AK4" s="2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AL4" s="1" t="n">
+        <v>0.8711</v>
+      </c>
+      <c r="AM4" s="1" t="n">
+        <v>0.87176</v>
+      </c>
+      <c r="AN4" s="1" t="n">
+        <v>0.86941</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>527802</v>
+      </c>
+      <c r="AP4" s="4" t="inlineStr">
+        <is>
+          <t>02/12/26</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3545,6 +3667,37 @@
           <t>02/11/26</t>
         </is>
       </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>AUDCHF</t>
+        </is>
+      </c>
+      <c r="AI5" s="1" t="n">
+        <v>0.5456</v>
+      </c>
+      <c r="AJ5" s="1" t="n">
+        <v>-0.0044</v>
+      </c>
+      <c r="AK5" s="2" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AL5" s="1" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AM5" s="1" t="n">
+        <v>0.5507</v>
+      </c>
+      <c r="AN5" s="1" t="n">
+        <v>0.5448</v>
+      </c>
+      <c r="AO5" s="3" t="n">
+        <v>813622</v>
+      </c>
+      <c r="AP5" s="4" t="inlineStr">
+        <is>
+          <t>02/12/26</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3640,6 +3793,37 @@
           <t>02/11/26</t>
         </is>
       </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="AI6" s="1" t="n">
+        <v>1.36098</v>
+      </c>
+      <c r="AJ6" s="1" t="n">
+        <v>0.00333</v>
+      </c>
+      <c r="AK6" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>1.35765</v>
+      </c>
+      <c r="AM6" s="1" t="n">
+        <v>1.36358</v>
+      </c>
+      <c r="AN6" s="1" t="n">
+        <v>1.35556</v>
+      </c>
+      <c r="AO6" s="3" t="n">
+        <v>330076</v>
+      </c>
+      <c r="AP6" s="4" t="inlineStr">
+        <is>
+          <t>02/12/26</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3735,6 +3919,37 @@
           <t>02/11/26</t>
         </is>
       </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="AI7" s="1" t="n">
+        <v>0.9651</v>
+      </c>
+      <c r="AJ7" s="1" t="n">
+        <v>-0.00255</v>
+      </c>
+      <c r="AK7" s="2" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="AL7" s="1" t="n">
+        <v>0.96765</v>
+      </c>
+      <c r="AM7" s="1" t="n">
+        <v>0.96991</v>
+      </c>
+      <c r="AN7" s="1" t="n">
+        <v>0.96445</v>
+      </c>
+      <c r="AO7" s="3" t="n">
+        <v>335496</v>
+      </c>
+      <c r="AP7" s="4" t="inlineStr">
+        <is>
+          <t>02/12/26</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3830,6 +4045,37 @@
           <t>12/19/25</t>
         </is>
       </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>NQZ25</t>
+        </is>
+      </c>
+      <c r="AI8" s="1" t="n">
+        <v>25132.79</v>
+      </c>
+      <c r="AJ8" s="1" t="n">
+        <v>104.54</v>
+      </c>
+      <c r="AK8" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AL8" s="1" t="n">
+        <v>25002.5</v>
+      </c>
+      <c r="AM8" s="1" t="n">
+        <v>25160</v>
+      </c>
+      <c r="AN8" s="1" t="n">
+        <v>24977.5</v>
+      </c>
+      <c r="AO8" s="3" t="n">
+        <v>6987</v>
+      </c>
+      <c r="AP8" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3925,6 +4171,37 @@
           <t>12/19/25</t>
         </is>
       </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>ESZ25</t>
+        </is>
+      </c>
+      <c r="AI9" s="1" t="n">
+        <v>6796.54</v>
+      </c>
+      <c r="AJ9" s="1" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AL9" s="1" t="n">
+        <v>6772.25</v>
+      </c>
+      <c r="AM9" s="1" t="n">
+        <v>6802.75</v>
+      </c>
+      <c r="AN9" s="1" t="n">
+        <v>6768</v>
+      </c>
+      <c r="AO9" s="3" t="n">
+        <v>22237</v>
+      </c>
+      <c r="AP9" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4020,6 +4297,37 @@
           <t>02/11/26</t>
         </is>
       </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>XAGUSD</t>
+        </is>
+      </c>
+      <c r="AI10" s="1" t="n">
+        <v>75.312</v>
+      </c>
+      <c r="AJ10" s="1" t="n">
+        <v>-8.970000000000001</v>
+      </c>
+      <c r="AK10" s="2" t="n">
+        <v>-10.64</v>
+      </c>
+      <c r="AL10" s="1" t="n">
+        <v>84.283</v>
+      </c>
+      <c r="AM10" s="1" t="n">
+        <v>84.93300000000001</v>
+      </c>
+      <c r="AN10" s="1" t="n">
+        <v>74.47</v>
+      </c>
+      <c r="AO10" s="3" t="n">
+        <v>171222</v>
+      </c>
+      <c r="AP10" s="4" t="inlineStr">
+        <is>
+          <t>02/12/26</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4115,6 +4423,37 @@
           <t>02/11/26</t>
         </is>
       </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="AI11" s="1" t="n">
+        <v>4921.82</v>
+      </c>
+      <c r="AJ11" s="1" t="n">
+        <v>-162.71</v>
+      </c>
+      <c r="AK11" s="2" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="AL11" s="1" t="n">
+        <v>5084.58</v>
+      </c>
+      <c r="AM11" s="1" t="n">
+        <v>5100.03</v>
+      </c>
+      <c r="AN11" s="1" t="n">
+        <v>4882.43</v>
+      </c>
+      <c r="AO11" s="3" t="n">
+        <v>164805</v>
+      </c>
+      <c r="AP11" s="4" t="inlineStr">
+        <is>
+          <t>02/12/26</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4210,6 +4549,37 @@
           <t>02/11/26</t>
         </is>
       </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>CADCHF</t>
+        </is>
+      </c>
+      <c r="AI12" s="1" t="n">
+        <v>0.5653</v>
+      </c>
+      <c r="AJ12" s="1" t="n">
+        <v>-0.0032</v>
+      </c>
+      <c r="AK12" s="2" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="AL12" s="1" t="n">
+        <v>0.5685</v>
+      </c>
+      <c r="AM12" s="1" t="n">
+        <v>0.5686</v>
+      </c>
+      <c r="AN12" s="1" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="AO12" s="3" t="n">
+        <v>301188</v>
+      </c>
+      <c r="AP12" s="4" t="inlineStr">
+        <is>
+          <t>02/12/26</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4305,6 +4675,37 @@
           <t>02/11/26</t>
         </is>
       </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>EURCAD</t>
+        </is>
+      </c>
+      <c r="AI13" s="1" t="n">
+        <v>1.61557</v>
+      </c>
+      <c r="AJ13" s="1" t="n">
+        <v>0.00388</v>
+      </c>
+      <c r="AK13" s="2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AL13" s="1" t="n">
+        <v>1.61169</v>
+      </c>
+      <c r="AM13" s="1" t="n">
+        <v>1.61794</v>
+      </c>
+      <c r="AN13" s="1" t="n">
+        <v>1.6106</v>
+      </c>
+      <c r="AO13" s="3" t="n">
+        <v>409391</v>
+      </c>
+      <c r="AP13" s="4" t="inlineStr">
+        <is>
+          <t>02/12/26</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4400,6 +4801,37 @@
           <t>02/11/26</t>
         </is>
       </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="AI14" s="1" t="n">
+        <v>152.737</v>
+      </c>
+      <c r="AJ14" s="1" t="n">
+        <v>-0.529</v>
+      </c>
+      <c r="AK14" s="2" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="AL14" s="1" t="n">
+        <v>153.266</v>
+      </c>
+      <c r="AM14" s="1" t="n">
+        <v>153.757</v>
+      </c>
+      <c r="AN14" s="1" t="n">
+        <v>152.272</v>
+      </c>
+      <c r="AO14" s="3" t="n">
+        <v>609148</v>
+      </c>
+      <c r="AP14" s="4" t="inlineStr">
+        <is>
+          <t>02/12/26</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4495,6 +4927,37 @@
           <t>02/11/26</t>
         </is>
       </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>EURCHF</t>
+        </is>
+      </c>
+      <c r="AI15" s="1" t="n">
+        <v>0.91332</v>
+      </c>
+      <c r="AJ15" s="1" t="n">
+        <v>-0.00281</v>
+      </c>
+      <c r="AK15" s="2" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="AL15" s="1" t="n">
+        <v>0.91612</v>
+      </c>
+      <c r="AM15" s="1" t="n">
+        <v>0.91621</v>
+      </c>
+      <c r="AN15" s="1" t="n">
+        <v>0.91129</v>
+      </c>
+      <c r="AO15" s="3" t="n">
+        <v>442226</v>
+      </c>
+      <c r="AP15" s="4" t="inlineStr">
+        <is>
+          <t>02/12/26</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4588,6 +5051,37 @@
       <c r="AE16" s="4" t="inlineStr">
         <is>
           <t>02/11/26</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>USDCHF</t>
+        </is>
+      </c>
+      <c r="AI16" s="1" t="n">
+        <v>0.76938</v>
+      </c>
+      <c r="AJ16" s="1" t="n">
+        <v>-0.00234</v>
+      </c>
+      <c r="AK16" s="2" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="AL16" s="1" t="n">
+        <v>0.77172</v>
+      </c>
+      <c r="AM16" s="1" t="n">
+        <v>0.77251</v>
+      </c>
+      <c r="AN16" s="1" t="n">
+        <v>0.7667</v>
+      </c>
+      <c r="AO16" s="3" t="n">
+        <v>399185</v>
+      </c>
+      <c r="AP16" s="4" t="inlineStr">
+        <is>
+          <t>02/12/26</t>
         </is>
       </c>
     </row>

--- a/outputs/february.xlsx
+++ b/outputs/february.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Week1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Week2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Week3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3011,7 +3012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP16"/>
+  <dimension ref="A1:BA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3200,6 +3201,51 @@
           <t>Time</t>
         </is>
       </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>Latest</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>%Change</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3326,6 +3372,37 @@
           <t>02/12/26</t>
         </is>
       </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+      <c r="AT2" s="1" t="n">
+        <v>68822.58</v>
+      </c>
+      <c r="AU2" s="1" t="n">
+        <v>3014.85</v>
+      </c>
+      <c r="AV2" s="2" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="AW2" s="1" t="n">
+        <v>66269.33</v>
+      </c>
+      <c r="AX2" s="1" t="n">
+        <v>69395.41</v>
+      </c>
+      <c r="AY2" s="1" t="n">
+        <v>65698.16</v>
+      </c>
+      <c r="AZ2" s="3" t="n">
+        <v>162806248</v>
+      </c>
+      <c r="BA2" s="4" t="inlineStr">
+        <is>
+          <t>02/13/26</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3438,12 +3515,41 @@
       <c r="AN3" s="1" t="n">
         <v>96.73999999999999</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>DXY</t>
+        </is>
+      </c>
+      <c r="AT3" s="1" t="n">
+        <v>96.88</v>
+      </c>
+      <c r="AU3" s="1" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AV3" s="2" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AW3" s="1" t="n">
+        <v>96.93000000000001</v>
+      </c>
+      <c r="AX3" s="1" t="n">
+        <v>97.15000000000001</v>
+      </c>
+      <c r="AY3" s="1" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="AZ3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="4" t="inlineStr">
+        <is>
+          <t>17:00 ET</t>
         </is>
       </c>
     </row>
@@ -3572,6 +3678,37 @@
           <t>02/12/26</t>
         </is>
       </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>EURGBP</t>
+        </is>
+      </c>
+      <c r="AT4" s="1" t="n">
+        <v>0.86917</v>
+      </c>
+      <c r="AU4" s="1" t="n">
+        <v>-0.00227</v>
+      </c>
+      <c r="AV4" s="2" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="AW4" s="1" t="n">
+        <v>0.87144</v>
+      </c>
+      <c r="AX4" s="1" t="n">
+        <v>0.87215</v>
+      </c>
+      <c r="AY4" s="1" t="n">
+        <v>0.86916</v>
+      </c>
+      <c r="AZ4" s="3" t="n">
+        <v>500221</v>
+      </c>
+      <c r="BA4" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3698,6 +3835,37 @@
           <t>02/12/26</t>
         </is>
       </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>AUDCHF</t>
+        </is>
+      </c>
+      <c r="AT5" s="1" t="n">
+        <v>0.5429</v>
+      </c>
+      <c r="AU5" s="1" t="n">
+        <v>-0.0027</v>
+      </c>
+      <c r="AV5" s="2" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="AW5" s="1" t="n">
+        <v>0.5456</v>
+      </c>
+      <c r="AX5" s="1" t="n">
+        <v>0.5463</v>
+      </c>
+      <c r="AY5" s="1" t="n">
+        <v>0.5417</v>
+      </c>
+      <c r="AZ5" s="3" t="n">
+        <v>827212</v>
+      </c>
+      <c r="BA5" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3824,6 +3992,37 @@
           <t>02/12/26</t>
         </is>
       </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="AT6" s="1" t="n">
+        <v>1.36181</v>
+      </c>
+      <c r="AU6" s="1" t="n">
+        <v>0.00083</v>
+      </c>
+      <c r="AV6" s="2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AW6" s="1" t="n">
+        <v>1.36098</v>
+      </c>
+      <c r="AX6" s="1" t="n">
+        <v>1.36375</v>
+      </c>
+      <c r="AY6" s="1" t="n">
+        <v>1.35935</v>
+      </c>
+      <c r="AZ6" s="3" t="n">
+        <v>326825</v>
+      </c>
+      <c r="BA6" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3950,6 +4149,37 @@
           <t>02/12/26</t>
         </is>
       </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="AT7" s="1" t="n">
+        <v>0.96315</v>
+      </c>
+      <c r="AU7" s="1" t="n">
+        <v>-0.00195</v>
+      </c>
+      <c r="AV7" s="2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AW7" s="1" t="n">
+        <v>0.9651</v>
+      </c>
+      <c r="AX7" s="1" t="n">
+        <v>0.96613</v>
+      </c>
+      <c r="AY7" s="1" t="n">
+        <v>0.95992</v>
+      </c>
+      <c r="AZ7" s="3" t="n">
+        <v>339877</v>
+      </c>
+      <c r="BA7" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4076,6 +4306,37 @@
           <t>12/19/25</t>
         </is>
       </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>NQZ25</t>
+        </is>
+      </c>
+      <c r="AT8" s="1" t="n">
+        <v>25132.79</v>
+      </c>
+      <c r="AU8" s="1" t="n">
+        <v>104.54</v>
+      </c>
+      <c r="AV8" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AW8" s="1" t="n">
+        <v>25002.5</v>
+      </c>
+      <c r="AX8" s="1" t="n">
+        <v>25160</v>
+      </c>
+      <c r="AY8" s="1" t="n">
+        <v>24977.5</v>
+      </c>
+      <c r="AZ8" s="3" t="n">
+        <v>6987</v>
+      </c>
+      <c r="BA8" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4202,6 +4463,37 @@
           <t>12/19/25</t>
         </is>
       </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>ESZ25</t>
+        </is>
+      </c>
+      <c r="AT9" s="1" t="n">
+        <v>6796.54</v>
+      </c>
+      <c r="AU9" s="1" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="AV9" s="2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AW9" s="1" t="n">
+        <v>6772.25</v>
+      </c>
+      <c r="AX9" s="1" t="n">
+        <v>6802.75</v>
+      </c>
+      <c r="AY9" s="1" t="n">
+        <v>6768</v>
+      </c>
+      <c r="AZ9" s="3" t="n">
+        <v>22237</v>
+      </c>
+      <c r="BA9" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4328,6 +4620,37 @@
           <t>02/12/26</t>
         </is>
       </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>XAGUSD</t>
+        </is>
+      </c>
+      <c r="AT10" s="1" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="AU10" s="1" t="n">
+        <v>2.088</v>
+      </c>
+      <c r="AV10" s="2" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AW10" s="1" t="n">
+        <v>75.313</v>
+      </c>
+      <c r="AX10" s="1" t="n">
+        <v>79.33</v>
+      </c>
+      <c r="AY10" s="1" t="n">
+        <v>74.02</v>
+      </c>
+      <c r="AZ10" s="3" t="n">
+        <v>178514</v>
+      </c>
+      <c r="BA10" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4454,6 +4777,37 @@
           <t>02/12/26</t>
         </is>
       </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="AT11" s="1" t="n">
+        <v>5042.02</v>
+      </c>
+      <c r="AU11" s="1" t="n">
+        <v>120.2</v>
+      </c>
+      <c r="AV11" s="2" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AW11" s="1" t="n">
+        <v>4921.82</v>
+      </c>
+      <c r="AX11" s="1" t="n">
+        <v>5046.07</v>
+      </c>
+      <c r="AY11" s="1" t="n">
+        <v>4890.72</v>
+      </c>
+      <c r="AZ11" s="3" t="n">
+        <v>158412</v>
+      </c>
+      <c r="BA11" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4580,6 +4934,37 @@
           <t>02/12/26</t>
         </is>
       </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>CADCHF</t>
+        </is>
+      </c>
+      <c r="AT12" s="1" t="n">
+        <v>0.5637</v>
+      </c>
+      <c r="AU12" s="1" t="n">
+        <v>-0.0016</v>
+      </c>
+      <c r="AV12" s="2" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="AW12" s="1" t="n">
+        <v>0.5653</v>
+      </c>
+      <c r="AX12" s="1" t="n">
+        <v>0.5662</v>
+      </c>
+      <c r="AY12" s="1" t="n">
+        <v>0.5636</v>
+      </c>
+      <c r="AZ12" s="3" t="n">
+        <v>276544</v>
+      </c>
+      <c r="BA12" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4706,6 +5091,37 @@
           <t>02/12/26</t>
         </is>
       </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>EURCAD</t>
+        </is>
+      </c>
+      <c r="AT13" s="1" t="n">
+        <v>1.6162</v>
+      </c>
+      <c r="AU13" s="1" t="n">
+        <v>0.00063</v>
+      </c>
+      <c r="AV13" s="2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AW13" s="1" t="n">
+        <v>1.61556</v>
+      </c>
+      <c r="AX13" s="1" t="n">
+        <v>1.61764</v>
+      </c>
+      <c r="AY13" s="1" t="n">
+        <v>1.61336</v>
+      </c>
+      <c r="AZ13" s="3" t="n">
+        <v>356147</v>
+      </c>
+      <c r="BA13" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4832,6 +5248,37 @@
           <t>02/12/26</t>
         </is>
       </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="AT14" s="1" t="n">
+        <v>152.69</v>
+      </c>
+      <c r="AU14" s="1" t="n">
+        <v>-0.047</v>
+      </c>
+      <c r="AV14" s="2" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AW14" s="1" t="n">
+        <v>152.737</v>
+      </c>
+      <c r="AX14" s="1" t="n">
+        <v>153.666</v>
+      </c>
+      <c r="AY14" s="1" t="n">
+        <v>152.597</v>
+      </c>
+      <c r="AZ14" s="3" t="n">
+        <v>530202</v>
+      </c>
+      <c r="BA14" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4958,6 +5405,37 @@
           <t>02/12/26</t>
         </is>
       </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>EURCHF</t>
+        </is>
+      </c>
+      <c r="AT15" s="1" t="n">
+        <v>0.91115</v>
+      </c>
+      <c r="AU15" s="1" t="n">
+        <v>-0.00217</v>
+      </c>
+      <c r="AV15" s="2" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="AW15" s="1" t="n">
+        <v>0.91334</v>
+      </c>
+      <c r="AX15" s="1" t="n">
+        <v>0.91452</v>
+      </c>
+      <c r="AY15" s="1" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="AZ15" s="3" t="n">
+        <v>399246</v>
+      </c>
+      <c r="BA15" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5082,6 +5560,1618 @@
       <c r="AP16" s="4" t="inlineStr">
         <is>
           <t>02/12/26</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>USDCHF</t>
+        </is>
+      </c>
+      <c r="AT16" s="1" t="n">
+        <v>0.76758</v>
+      </c>
+      <c r="AU16" s="1" t="n">
+        <v>-0.0018</v>
+      </c>
+      <c r="AV16" s="2" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="AW16" s="1" t="n">
+        <v>0.76938</v>
+      </c>
+      <c r="AX16" s="1" t="n">
+        <v>0.77179</v>
+      </c>
+      <c r="AY16" s="1" t="n">
+        <v>0.76707</v>
+      </c>
+      <c r="AZ16" s="3" t="n">
+        <v>333689</v>
+      </c>
+      <c r="BA16" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AE16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Latest</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>%Change</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Latest</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>%Change</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Latest</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>%Change</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>68499.09</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>-323.49</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>68834.21000000001</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>70939.3</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>67350.91</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>155103512</v>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>02/16/26</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>67677.02</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>-822.0700000000001</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>68876.31</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>69041.02</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>66708.09</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>153076541</v>
+      </c>
+      <c r="T2" s="4" t="inlineStr">
+        <is>
+          <t>02/17/26</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>66349.34</v>
+      </c>
+      <c r="Y2" s="1" t="n">
+        <v>-1327.68</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="AA2" s="1" t="n">
+        <v>67534.28</v>
+      </c>
+      <c r="AB2" s="1" t="n">
+        <v>68406.60000000001</v>
+      </c>
+      <c r="AC2" s="1" t="n">
+        <v>66033.13</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>182413052</v>
+      </c>
+      <c r="AE2" s="4" t="inlineStr">
+        <is>
+          <t>02/18/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DXY</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>96.88</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>97.12</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>96.88</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v/>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>02/17/26</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>DXY</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>97.13</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>97.12</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>97.55</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>97.06999999999999</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v/>
+      </c>
+      <c r="T3" s="4" t="inlineStr">
+        <is>
+          <t>17:38 ET</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>DXY</t>
+        </is>
+      </c>
+      <c r="X3" s="1" t="n">
+        <v>97.70999999999999</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="Z3" s="2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AA3" s="1" t="n">
+        <v>97.14</v>
+      </c>
+      <c r="AB3" s="1" t="n">
+        <v>97.73999999999999</v>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>97.12</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AE3" s="4" t="inlineStr">
+        <is>
+          <t>17:38 ET</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EURGBP</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.8695000000000001</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.00033</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.8699</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.87013</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.8687</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>301525</v>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>02/16/26</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>EURGBP</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>0.87364</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>0.00414</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>0.8695000000000001</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>0.8748899999999999</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>0.86931</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>484179</v>
+      </c>
+      <c r="T4" s="4" t="inlineStr">
+        <is>
+          <t>02/17/26</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>EURGBP</t>
+        </is>
+      </c>
+      <c r="X4" s="1" t="n">
+        <v>0.87316</v>
+      </c>
+      <c r="Y4" s="1" t="n">
+        <v>-0.00048</v>
+      </c>
+      <c r="Z4" s="2" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AA4" s="1" t="n">
+        <v>0.87364</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>0.8741</v>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>0.87171</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>452529</v>
+      </c>
+      <c r="AE4" s="4" t="inlineStr">
+        <is>
+          <t>02/18/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AUDCHF</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.5443</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.5433</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.5458</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.5419</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>470828</v>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>02/16/26</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>AUDCHF</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>0.5457</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>0.5443</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>0.5462</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>0.5424</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>782069</v>
+      </c>
+      <c r="T5" s="4" t="inlineStr">
+        <is>
+          <t>02/17/26</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>AUDCHF</t>
+        </is>
+      </c>
+      <c r="X5" s="1" t="n">
+        <v>0.5444</v>
+      </c>
+      <c r="Y5" s="1" t="n">
+        <v>-0.0013</v>
+      </c>
+      <c r="Z5" s="2" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="AA5" s="1" t="n">
+        <v>0.5457</v>
+      </c>
+      <c r="AB5" s="1" t="n">
+        <v>0.5463</v>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>0.5436</v>
+      </c>
+      <c r="AD5" s="3" t="n">
+        <v>650060</v>
+      </c>
+      <c r="AE5" s="4" t="inlineStr">
+        <is>
+          <t>02/18/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1.36369</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.00188</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1.36104</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1.3639</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>1.36037</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>166105</v>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>02/16/26</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>1.36361</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>-8.000000000000001e-05</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>1.36369</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>1.36928</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>1.36324</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>298724</v>
+      </c>
+      <c r="T6" s="4" t="inlineStr">
+        <is>
+          <t>02/17/26</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>1.3696</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>0.00599</v>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AA6" s="1" t="n">
+        <v>1.36362</v>
+      </c>
+      <c r="AB6" s="1" t="n">
+        <v>1.37003</v>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>1.36325</v>
+      </c>
+      <c r="AD6" s="3" t="n">
+        <v>267317</v>
+      </c>
+      <c r="AE6" s="4" t="inlineStr">
+        <is>
+          <t>02/18/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.9644</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.00125</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.96227</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0.96579</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.9604200000000001</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>195335</v>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>02/16/26</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>0.96626</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>0.00186</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>0.96439</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>0.96688</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>0.9616400000000001</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>323335</v>
+      </c>
+      <c r="T7" s="4" t="inlineStr">
+        <is>
+          <t>02/17/26</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="X7" s="1" t="n">
+        <v>0.96452</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>-0.00174</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="AA7" s="1" t="n">
+        <v>0.96626</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>0.96711</v>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>0.9636400000000001</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>272126</v>
+      </c>
+      <c r="AE7" s="4" t="inlineStr">
+        <is>
+          <t>02/18/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NQZ25</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>25132.79</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>104.54</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>25002.5</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>25160</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>24977.5</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>6987</v>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>NQZ25</t>
+        </is>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>25132.79</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>104.54</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>25002.5</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>25160</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>24977.5</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>6987</v>
+      </c>
+      <c r="T8" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>NQZ25</t>
+        </is>
+      </c>
+      <c r="X8" s="1" t="n">
+        <v>25132.79</v>
+      </c>
+      <c r="Y8" s="1" t="n">
+        <v>104.54</v>
+      </c>
+      <c r="Z8" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AA8" s="1" t="n">
+        <v>25002.5</v>
+      </c>
+      <c r="AB8" s="1" t="n">
+        <v>25160</v>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>24977.5</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>6987</v>
+      </c>
+      <c r="AE8" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ESZ25</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>6796.54</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>6772.25</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>6802.75</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>6768</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>22237</v>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ESZ25</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>6796.54</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>6772.25</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>6802.75</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>6768</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>22237</v>
+      </c>
+      <c r="T9" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>ESZ25</t>
+        </is>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>6796.54</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AA9" s="1" t="n">
+        <v>6772.25</v>
+      </c>
+      <c r="AB9" s="1" t="n">
+        <v>6802.75</v>
+      </c>
+      <c r="AC9" s="1" t="n">
+        <v>6768</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>22237</v>
+      </c>
+      <c r="AE9" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>XAGUSD</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>76.626</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>-0.774</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>77.417</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>77.657</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>74.858</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>98638</v>
+      </c>
+      <c r="I10" s="4" t="inlineStr">
+        <is>
+          <t>02/16/26</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>XAGUSD</t>
+        </is>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>73.53700000000001</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>-3.089</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>-4.03</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>76.625</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>76.89100000000001</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>72.092</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>176481</v>
+      </c>
+      <c r="T10" s="4" t="inlineStr">
+        <is>
+          <t>02/17/26</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>XAGUSD</t>
+        </is>
+      </c>
+      <c r="X10" s="1" t="n">
+        <v>77.187</v>
+      </c>
+      <c r="Y10" s="1" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Z10" s="2" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="AA10" s="1" t="n">
+        <v>73.538</v>
+      </c>
+      <c r="AB10" s="1" t="n">
+        <v>78.33499999999999</v>
+      </c>
+      <c r="AC10" s="1" t="n">
+        <v>72.336</v>
+      </c>
+      <c r="AD10" s="3" t="n">
+        <v>158702</v>
+      </c>
+      <c r="AE10" s="4" t="inlineStr">
+        <is>
+          <t>02/18/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>4993.71</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>-48.31</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>5041.51</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>5041.51</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>4967.32</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>100648</v>
+      </c>
+      <c r="I11" s="4" t="inlineStr">
+        <is>
+          <t>02/16/26</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>4877.62</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>-116.1</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>-2.32</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>4993.71</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>4999.67</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>4847.74</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>160501</v>
+      </c>
+      <c r="T11" s="4" t="inlineStr">
+        <is>
+          <t>02/17/26</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="X11" s="1" t="n">
+        <v>4977.05</v>
+      </c>
+      <c r="Y11" s="1" t="n">
+        <v>99.43000000000001</v>
+      </c>
+      <c r="Z11" s="2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AA11" s="1" t="n">
+        <v>4877.62</v>
+      </c>
+      <c r="AB11" s="1" t="n">
+        <v>5010.92</v>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>4855.15</v>
+      </c>
+      <c r="AD11" s="3" t="n">
+        <v>133442</v>
+      </c>
+      <c r="AE11" s="4" t="inlineStr">
+        <is>
+          <t>02/18/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CADCHF</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0.5644</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.5646</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0.5657</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0.5637</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>189350</v>
+      </c>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>02/16/26</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>CADCHF</t>
+        </is>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>0.5647</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>0.5644</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>0.5658</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>0.5635</v>
+      </c>
+      <c r="S12" s="3" t="n">
+        <v>265681</v>
+      </c>
+      <c r="T12" s="4" t="inlineStr">
+        <is>
+          <t>02/17/26</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>CADCHF</t>
+        </is>
+      </c>
+      <c r="X12" s="1" t="n">
+        <v>0.5645</v>
+      </c>
+      <c r="Y12" s="1" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="Z12" s="2" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AA12" s="1" t="n">
+        <v>0.5647</v>
+      </c>
+      <c r="AB12" s="1" t="n">
+        <v>0.5654</v>
+      </c>
+      <c r="AC12" s="1" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="AD12" s="3" t="n">
+        <v>243132</v>
+      </c>
+      <c r="AE12" s="4" t="inlineStr">
+        <is>
+          <t>02/18/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EURCAD</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1.6161</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>1.61594</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1.61685</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>1.61392</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>237110</v>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>02/16/26</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>EURCAD</t>
+        </is>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>1.61645</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>0.00035</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>1.6161</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>1.61732</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>1.61378</v>
+      </c>
+      <c r="S13" s="3" t="n">
+        <v>367389</v>
+      </c>
+      <c r="T13" s="4" t="inlineStr">
+        <is>
+          <t>02/17/26</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>EURCAD</t>
+        </is>
+      </c>
+      <c r="X13" s="1" t="n">
+        <v>1.61373</v>
+      </c>
+      <c r="Y13" s="1" t="n">
+        <v>-0.00272</v>
+      </c>
+      <c r="Z13" s="2" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="AA13" s="1" t="n">
+        <v>1.61646</v>
+      </c>
+      <c r="AB13" s="1" t="n">
+        <v>1.61723</v>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>1.61347</v>
+      </c>
+      <c r="AD13" s="3" t="n">
+        <v>342645</v>
+      </c>
+      <c r="AE13" s="4" t="inlineStr">
+        <is>
+          <t>02/18/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>153.519</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>152.673</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>153.638</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>152.657</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>336763</v>
+      </c>
+      <c r="I14" s="4" t="inlineStr">
+        <is>
+          <t>02/16/26</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>153.288</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>-0.231</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>153.512</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>153.919</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>152.702</v>
+      </c>
+      <c r="S14" s="3" t="n">
+        <v>536072</v>
+      </c>
+      <c r="T14" s="4" t="inlineStr">
+        <is>
+          <t>02/17/26</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="X14" s="1" t="n">
+        <v>154.832</v>
+      </c>
+      <c r="Y14" s="1" t="n">
+        <v>1.544</v>
+      </c>
+      <c r="Z14" s="2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AA14" s="1" t="n">
+        <v>153.287</v>
+      </c>
+      <c r="AB14" s="1" t="n">
+        <v>154.868</v>
+      </c>
+      <c r="AC14" s="1" t="n">
+        <v>153.071</v>
+      </c>
+      <c r="AD14" s="3" t="n">
+        <v>479697</v>
+      </c>
+      <c r="AE14" s="4" t="inlineStr">
+        <is>
+          <t>02/18/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EURCHF</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0.91212</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0.0009700000000000001</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.91213</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0.91366</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0.91148</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>229081</v>
+      </c>
+      <c r="I15" s="4" t="inlineStr">
+        <is>
+          <t>02/16/26</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>EURCHF</t>
+        </is>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>0.91286</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>0.00074</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>0.91212</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>0.91404</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>0.9106300000000001</v>
+      </c>
+      <c r="S15" s="3" t="n">
+        <v>362031</v>
+      </c>
+      <c r="T15" s="4" t="inlineStr">
+        <is>
+          <t>02/17/26</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>EURCHF</t>
+        </is>
+      </c>
+      <c r="X15" s="1" t="n">
+        <v>0.91092</v>
+      </c>
+      <c r="Y15" s="1" t="n">
+        <v>-0.00194</v>
+      </c>
+      <c r="Z15" s="2" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="AA15" s="1" t="n">
+        <v>0.91286</v>
+      </c>
+      <c r="AB15" s="1" t="n">
+        <v>0.91354</v>
+      </c>
+      <c r="AC15" s="1" t="n">
+        <v>0.9106</v>
+      </c>
+      <c r="AD15" s="3" t="n">
+        <v>333366</v>
+      </c>
+      <c r="AE15" s="4" t="inlineStr">
+        <is>
+          <t>02/18/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>USDCHF</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0.76964</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0.00206</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0.76835</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0.77044</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0.7678700000000001</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>213186</v>
+      </c>
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>02/16/26</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>USDCHF</t>
+        </is>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>0.77005</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>0.7696499999999999</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>0.76874</v>
+      </c>
+      <c r="S16" s="3" t="n">
+        <v>324632</v>
+      </c>
+      <c r="T16" s="4" t="inlineStr">
+        <is>
+          <t>02/17/26</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>USDCHF</t>
+        </is>
+      </c>
+      <c r="X16" s="1" t="n">
+        <v>0.7731</v>
+      </c>
+      <c r="Y16" s="1" t="n">
+        <v>0.00305</v>
+      </c>
+      <c r="Z16" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA16" s="1" t="n">
+        <v>0.7700399999999999</v>
+      </c>
+      <c r="AB16" s="1" t="n">
+        <v>0.77323</v>
+      </c>
+      <c r="AC16" s="1" t="n">
+        <v>0.76993</v>
+      </c>
+      <c r="AD16" s="3" t="n">
+        <v>279647</v>
+      </c>
+      <c r="AE16" s="4" t="inlineStr">
+        <is>
+          <t>02/18/26</t>
         </is>
       </c>
     </row>

--- a/outputs/february.xlsx
+++ b/outputs/february.xlsx
@@ -5605,7 +5605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE16"/>
+  <dimension ref="A1:AP16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5749,6 +5749,51 @@
           <t>Time</t>
         </is>
       </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>Latest</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>%Change</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5844,6 +5889,37 @@
           <t>02/18/26</t>
         </is>
       </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+      <c r="AI2" s="1" t="n">
+        <v>66924.57000000001</v>
+      </c>
+      <c r="AJ2" s="1" t="n">
+        <v>575.23</v>
+      </c>
+      <c r="AK2" s="2" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AL2" s="1" t="n">
+        <v>66474.19</v>
+      </c>
+      <c r="AM2" s="1" t="n">
+        <v>67279.56</v>
+      </c>
+      <c r="AN2" s="1" t="n">
+        <v>65646.02</v>
+      </c>
+      <c r="AO2" s="3" t="n">
+        <v>153304430</v>
+      </c>
+      <c r="AP2" s="4" t="inlineStr">
+        <is>
+          <t>02/19/26</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5869,9 +5945,7 @@
       <c r="G3" s="1" t="n">
         <v>96.88</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>02/17/26</t>
@@ -5900,9 +5974,7 @@
       <c r="R3" s="1" t="n">
         <v>97.06999999999999</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -5931,10 +6003,39 @@
       <c r="AC3" s="1" t="n">
         <v>97.12</v>
       </c>
-      <c r="AD3" s="3" t="n">
+      <c r="AD3" s="3" t="n"/>
+      <c r="AE3" s="4" t="inlineStr">
+        <is>
+          <t>17:38 ET</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>DXY</t>
+        </is>
+      </c>
+      <c r="AI3" s="1" t="n">
+        <v>97.83</v>
+      </c>
+      <c r="AJ3" s="1" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AK3" s="2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AL3" s="1" t="n">
+        <v>97.73</v>
+      </c>
+      <c r="AM3" s="1" t="n">
+        <v>98.06999999999999</v>
+      </c>
+      <c r="AN3" s="1" t="n">
+        <v>97.56999999999999</v>
+      </c>
+      <c r="AO3" s="3" t="n">
         <v/>
       </c>
-      <c r="AE3" s="4" t="inlineStr">
+      <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
         </is>
@@ -6034,6 +6135,37 @@
           <t>02/18/26</t>
         </is>
       </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>EURGBP</t>
+        </is>
+      </c>
+      <c r="AI4" s="1" t="n">
+        <v>0.87435</v>
+      </c>
+      <c r="AJ4" s="1" t="n">
+        <v>0.00119</v>
+      </c>
+      <c r="AK4" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AL4" s="1" t="n">
+        <v>0.87316</v>
+      </c>
+      <c r="AM4" s="1" t="n">
+        <v>0.87517</v>
+      </c>
+      <c r="AN4" s="1" t="n">
+        <v>0.87281</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>475058</v>
+      </c>
+      <c r="AP4" s="4" t="inlineStr">
+        <is>
+          <t>02/19/26</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6129,6 +6261,37 @@
           <t>02/18/26</t>
         </is>
       </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>AUDCHF</t>
+        </is>
+      </c>
+      <c r="AI5" s="1" t="n">
+        <v>0.5471</v>
+      </c>
+      <c r="AJ5" s="1" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="AK5" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL5" s="1" t="n">
+        <v>0.5444</v>
+      </c>
+      <c r="AM5" s="1" t="n">
+        <v>0.5475</v>
+      </c>
+      <c r="AN5" s="1" t="n">
+        <v>0.5438</v>
+      </c>
+      <c r="AO5" s="3" t="n">
+        <v>737447</v>
+      </c>
+      <c r="AP5" s="4" t="inlineStr">
+        <is>
+          <t>02/19/26</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6224,6 +6387,37 @@
           <t>02/18/26</t>
         </is>
       </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="AI6" s="1" t="n">
+        <v>1.36811</v>
+      </c>
+      <c r="AJ6" s="1" t="n">
+        <v>-0.00149</v>
+      </c>
+      <c r="AK6" s="2" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>1.3696</v>
+      </c>
+      <c r="AM6" s="1" t="n">
+        <v>1.37148</v>
+      </c>
+      <c r="AN6" s="1" t="n">
+        <v>1.36686</v>
+      </c>
+      <c r="AO6" s="3" t="n">
+        <v>290000</v>
+      </c>
+      <c r="AP6" s="4" t="inlineStr">
+        <is>
+          <t>02/19/26</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6319,6 +6513,37 @@
           <t>02/18/26</t>
         </is>
       </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="AI7" s="1" t="n">
+        <v>0.9656</v>
+      </c>
+      <c r="AJ7" s="1" t="n">
+        <v>0.00108</v>
+      </c>
+      <c r="AK7" s="2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AL7" s="1" t="n">
+        <v>0.96453</v>
+      </c>
+      <c r="AM7" s="1" t="n">
+        <v>0.96855</v>
+      </c>
+      <c r="AN7" s="1" t="n">
+        <v>0.96338</v>
+      </c>
+      <c r="AO7" s="3" t="n">
+        <v>305638</v>
+      </c>
+      <c r="AP7" s="4" t="inlineStr">
+        <is>
+          <t>02/19/26</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6414,6 +6639,37 @@
           <t>12/19/25</t>
         </is>
       </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>NQZ25</t>
+        </is>
+      </c>
+      <c r="AI8" s="1" t="n">
+        <v>25132.79</v>
+      </c>
+      <c r="AJ8" s="1" t="n">
+        <v>104.54</v>
+      </c>
+      <c r="AK8" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AL8" s="1" t="n">
+        <v>25002.5</v>
+      </c>
+      <c r="AM8" s="1" t="n">
+        <v>25160</v>
+      </c>
+      <c r="AN8" s="1" t="n">
+        <v>24977.5</v>
+      </c>
+      <c r="AO8" s="3" t="n">
+        <v>6987</v>
+      </c>
+      <c r="AP8" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6509,6 +6765,37 @@
           <t>12/19/25</t>
         </is>
       </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>ESZ25</t>
+        </is>
+      </c>
+      <c r="AI9" s="1" t="n">
+        <v>6796.54</v>
+      </c>
+      <c r="AJ9" s="1" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AL9" s="1" t="n">
+        <v>6772.25</v>
+      </c>
+      <c r="AM9" s="1" t="n">
+        <v>6802.75</v>
+      </c>
+      <c r="AN9" s="1" t="n">
+        <v>6768</v>
+      </c>
+      <c r="AO9" s="3" t="n">
+        <v>22237</v>
+      </c>
+      <c r="AP9" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6604,6 +6891,37 @@
           <t>02/18/26</t>
         </is>
       </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>XAGUSD</t>
+        </is>
+      </c>
+      <c r="AI10" s="1" t="n">
+        <v>78.535</v>
+      </c>
+      <c r="AJ10" s="1" t="n">
+        <v>1.348</v>
+      </c>
+      <c r="AK10" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL10" s="1" t="n">
+        <v>77.187</v>
+      </c>
+      <c r="AM10" s="1" t="n">
+        <v>79.45999999999999</v>
+      </c>
+      <c r="AN10" s="1" t="n">
+        <v>76.49299999999999</v>
+      </c>
+      <c r="AO10" s="3" t="n">
+        <v>154162</v>
+      </c>
+      <c r="AP10" s="4" t="inlineStr">
+        <is>
+          <t>02/19/26</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6699,6 +7017,37 @@
           <t>02/18/26</t>
         </is>
       </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="AI11" s="1" t="n">
+        <v>4996.2</v>
+      </c>
+      <c r="AJ11" s="1" t="n">
+        <v>19.15</v>
+      </c>
+      <c r="AK11" s="2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AL11" s="1" t="n">
+        <v>4977.08</v>
+      </c>
+      <c r="AM11" s="1" t="n">
+        <v>5022.21</v>
+      </c>
+      <c r="AN11" s="1" t="n">
+        <v>4960.86</v>
+      </c>
+      <c r="AO11" s="3" t="n">
+        <v>131544</v>
+      </c>
+      <c r="AP11" s="4" t="inlineStr">
+        <is>
+          <t>02/19/26</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6794,6 +7143,37 @@
           <t>02/18/26</t>
         </is>
       </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>CADCHF</t>
+        </is>
+      </c>
+      <c r="AI12" s="1" t="n">
+        <v>0.5665</v>
+      </c>
+      <c r="AJ12" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AK12" s="2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AL12" s="1" t="n">
+        <v>0.5645</v>
+      </c>
+      <c r="AM12" s="1" t="n">
+        <v>0.5669</v>
+      </c>
+      <c r="AN12" s="1" t="n">
+        <v>0.5639</v>
+      </c>
+      <c r="AO12" s="3" t="n">
+        <v>261274</v>
+      </c>
+      <c r="AP12" s="4" t="inlineStr">
+        <is>
+          <t>02/19/26</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6889,6 +7269,37 @@
           <t>02/18/26</t>
         </is>
       </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>EURCAD</t>
+        </is>
+      </c>
+      <c r="AI13" s="1" t="n">
+        <v>1.6107</v>
+      </c>
+      <c r="AJ13" s="1" t="n">
+        <v>-0.00303</v>
+      </c>
+      <c r="AK13" s="2" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="AL13" s="1" t="n">
+        <v>1.61372</v>
+      </c>
+      <c r="AM13" s="1" t="n">
+        <v>1.61595</v>
+      </c>
+      <c r="AN13" s="1" t="n">
+        <v>1.60925</v>
+      </c>
+      <c r="AO13" s="3" t="n">
+        <v>355222</v>
+      </c>
+      <c r="AP13" s="4" t="inlineStr">
+        <is>
+          <t>02/19/26</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6984,6 +7395,37 @@
           <t>02/18/26</t>
         </is>
       </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="AI14" s="1" t="n">
+        <v>154.989</v>
+      </c>
+      <c r="AJ14" s="1" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="AK14" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AL14" s="1" t="n">
+        <v>154.831</v>
+      </c>
+      <c r="AM14" s="1" t="n">
+        <v>155.335</v>
+      </c>
+      <c r="AN14" s="1" t="n">
+        <v>154.544</v>
+      </c>
+      <c r="AO14" s="3" t="n">
+        <v>529811</v>
+      </c>
+      <c r="AP14" s="4" t="inlineStr">
+        <is>
+          <t>02/19/26</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7079,6 +7521,37 @@
           <t>02/18/26</t>
         </is>
       </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>EURCHF</t>
+        </is>
+      </c>
+      <c r="AI15" s="1" t="n">
+        <v>0.91255</v>
+      </c>
+      <c r="AJ15" s="1" t="n">
+        <v>0.00163</v>
+      </c>
+      <c r="AK15" s="2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AL15" s="1" t="n">
+        <v>0.91094</v>
+      </c>
+      <c r="AM15" s="1" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="AN15" s="1" t="n">
+        <v>0.9105</v>
+      </c>
+      <c r="AO15" s="3" t="n">
+        <v>357501</v>
+      </c>
+      <c r="AP15" s="4" t="inlineStr">
+        <is>
+          <t>02/19/26</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7172,6 +7645,37 @@
       <c r="AE16" s="4" t="inlineStr">
         <is>
           <t>02/18/26</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>USDCHF</t>
+        </is>
+      </c>
+      <c r="AI16" s="1" t="n">
+        <v>0.77505</v>
+      </c>
+      <c r="AJ16" s="1" t="n">
+        <v>0.00195</v>
+      </c>
+      <c r="AK16" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AL16" s="1" t="n">
+        <v>0.77311</v>
+      </c>
+      <c r="AM16" s="1" t="n">
+        <v>0.77627</v>
+      </c>
+      <c r="AN16" s="1" t="n">
+        <v>0.7720399999999999</v>
+      </c>
+      <c r="AO16" s="3" t="n">
+        <v>312194</v>
+      </c>
+      <c r="AP16" s="4" t="inlineStr">
+        <is>
+          <t>02/19/26</t>
         </is>
       </c>
     </row>

--- a/outputs/february.xlsx
+++ b/outputs/february.xlsx
@@ -5605,7 +5605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP16"/>
+  <dimension ref="A1:BA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5794,6 +5794,51 @@
           <t>Time</t>
         </is>
       </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>Latest</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>%Change</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5920,6 +5965,37 @@
           <t>02/19/26</t>
         </is>
       </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+      <c r="AT2" s="1" t="n">
+        <v>67793.05</v>
+      </c>
+      <c r="AU2" s="1" t="n">
+        <v>868.48</v>
+      </c>
+      <c r="AV2" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW2" s="1" t="n">
+        <v>66994.62</v>
+      </c>
+      <c r="AX2" s="1" t="n">
+        <v>68273.14999999999</v>
+      </c>
+      <c r="AY2" s="1" t="n">
+        <v>66575.74000000001</v>
+      </c>
+      <c r="AZ2" s="3" t="n">
+        <v>189458376</v>
+      </c>
+      <c r="BA2" s="4" t="inlineStr">
+        <is>
+          <t>02/20/26</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6032,12 +6108,41 @@
       <c r="AN3" s="1" t="n">
         <v>97.56999999999999</v>
       </c>
-      <c r="AO3" s="3" t="n">
+      <c r="AO3" s="3" t="n"/>
+      <c r="AP3" s="4" t="inlineStr">
+        <is>
+          <t>17:38 ET</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>DXY</t>
+        </is>
+      </c>
+      <c r="AT3" s="1" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="AU3" s="1" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="AV3" s="2" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="AW3" s="1" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="AX3" s="1" t="n">
+        <v>98.08</v>
+      </c>
+      <c r="AY3" s="1" t="n">
+        <v>97.59</v>
+      </c>
+      <c r="AZ3" s="3" t="n">
         <v/>
       </c>
-      <c r="AP3" s="4" t="inlineStr">
-        <is>
-          <t>17:38 ET</t>
+      <c r="BA3" s="4" t="inlineStr">
+        <is>
+          <t>02/20/26</t>
         </is>
       </c>
     </row>
@@ -6166,6 +6271,37 @@
           <t>02/19/26</t>
         </is>
       </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>EURGBP</t>
+        </is>
+      </c>
+      <c r="AT4" s="1" t="n">
+        <v>0.87407</v>
+      </c>
+      <c r="AU4" s="1" t="n">
+        <v>-0.00028</v>
+      </c>
+      <c r="AV4" s="2" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AW4" s="1" t="n">
+        <v>0.87435</v>
+      </c>
+      <c r="AX4" s="1" t="n">
+        <v>0.87488</v>
+      </c>
+      <c r="AY4" s="1" t="n">
+        <v>0.87254</v>
+      </c>
+      <c r="AZ4" s="3" t="n">
+        <v>527299</v>
+      </c>
+      <c r="BA4" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6292,6 +6428,37 @@
           <t>02/19/26</t>
         </is>
       </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>AUDCHF</t>
+        </is>
+      </c>
+      <c r="AT5" s="1" t="n">
+        <v>0.5496</v>
+      </c>
+      <c r="AU5" s="1" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="AV5" s="2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AW5" s="1" t="n">
+        <v>0.5471</v>
+      </c>
+      <c r="AX5" s="1" t="n">
+        <v>0.5498</v>
+      </c>
+      <c r="AY5" s="1" t="n">
+        <v>0.5445</v>
+      </c>
+      <c r="AZ5" s="3" t="n">
+        <v>856664</v>
+      </c>
+      <c r="BA5" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6418,6 +6585,37 @@
           <t>02/19/26</t>
         </is>
       </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="AT6" s="1" t="n">
+        <v>1.36817</v>
+      </c>
+      <c r="AU6" s="1" t="n">
+        <v>6e-05</v>
+      </c>
+      <c r="AV6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="1" t="n">
+        <v>1.36812</v>
+      </c>
+      <c r="AX6" s="1" t="n">
+        <v>1.37105</v>
+      </c>
+      <c r="AY6" s="1" t="n">
+        <v>1.36694</v>
+      </c>
+      <c r="AZ6" s="3" t="n">
+        <v>349630</v>
+      </c>
+      <c r="BA6" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6544,6 +6742,37 @@
           <t>02/19/26</t>
         </is>
       </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="AT7" s="1" t="n">
+        <v>0.9691</v>
+      </c>
+      <c r="AU7" s="1" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="AV7" s="2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AW7" s="1" t="n">
+        <v>0.9656</v>
+      </c>
+      <c r="AX7" s="1" t="n">
+        <v>0.96991</v>
+      </c>
+      <c r="AY7" s="1" t="n">
+        <v>0.9613</v>
+      </c>
+      <c r="AZ7" s="3" t="n">
+        <v>367973</v>
+      </c>
+      <c r="BA7" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6670,6 +6899,37 @@
           <t>12/19/25</t>
         </is>
       </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>NQZ25</t>
+        </is>
+      </c>
+      <c r="AT8" s="1" t="n">
+        <v>25132.79</v>
+      </c>
+      <c r="AU8" s="1" t="n">
+        <v>104.54</v>
+      </c>
+      <c r="AV8" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AW8" s="1" t="n">
+        <v>25002.5</v>
+      </c>
+      <c r="AX8" s="1" t="n">
+        <v>25160</v>
+      </c>
+      <c r="AY8" s="1" t="n">
+        <v>24977.5</v>
+      </c>
+      <c r="AZ8" s="3" t="n">
+        <v>6987</v>
+      </c>
+      <c r="BA8" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6796,6 +7056,37 @@
           <t>12/19/25</t>
         </is>
       </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>ESZ25</t>
+        </is>
+      </c>
+      <c r="AT9" s="1" t="n">
+        <v>6796.54</v>
+      </c>
+      <c r="AU9" s="1" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="AV9" s="2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AW9" s="1" t="n">
+        <v>6772.25</v>
+      </c>
+      <c r="AX9" s="1" t="n">
+        <v>6802.75</v>
+      </c>
+      <c r="AY9" s="1" t="n">
+        <v>6768</v>
+      </c>
+      <c r="AZ9" s="3" t="n">
+        <v>22237</v>
+      </c>
+      <c r="BA9" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6922,6 +7213,37 @@
           <t>02/19/26</t>
         </is>
       </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>XAGUSD</t>
+        </is>
+      </c>
+      <c r="AT10" s="1" t="n">
+        <v>84.59</v>
+      </c>
+      <c r="AU10" s="1" t="n">
+        <v>6.055</v>
+      </c>
+      <c r="AV10" s="2" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="AW10" s="1" t="n">
+        <v>78.535</v>
+      </c>
+      <c r="AX10" s="1" t="n">
+        <v>84.73</v>
+      </c>
+      <c r="AY10" s="1" t="n">
+        <v>77.523</v>
+      </c>
+      <c r="AZ10" s="3" t="n">
+        <v>165990</v>
+      </c>
+      <c r="BA10" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7048,6 +7370,37 @@
           <t>02/19/26</t>
         </is>
       </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="AT11" s="1" t="n">
+        <v>5106.9</v>
+      </c>
+      <c r="AU11" s="1" t="n">
+        <v>110.7</v>
+      </c>
+      <c r="AV11" s="2" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AW11" s="1" t="n">
+        <v>4996.19</v>
+      </c>
+      <c r="AX11" s="1" t="n">
+        <v>5107.62</v>
+      </c>
+      <c r="AY11" s="1" t="n">
+        <v>4985.34</v>
+      </c>
+      <c r="AZ11" s="3" t="n">
+        <v>142206</v>
+      </c>
+      <c r="BA11" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7174,6 +7527,37 @@
           <t>02/19/26</t>
         </is>
       </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>CADCHF</t>
+        </is>
+      </c>
+      <c r="AT12" s="1" t="n">
+        <v>0.5671</v>
+      </c>
+      <c r="AU12" s="1" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="AV12" s="2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AW12" s="1" t="n">
+        <v>0.5666</v>
+      </c>
+      <c r="AX12" s="1" t="n">
+        <v>0.5675</v>
+      </c>
+      <c r="AY12" s="1" t="n">
+        <v>0.5653</v>
+      </c>
+      <c r="AZ12" s="3" t="n">
+        <v>286187</v>
+      </c>
+      <c r="BA12" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7300,6 +7684,37 @@
           <t>02/19/26</t>
         </is>
       </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>EURCAD</t>
+        </is>
+      </c>
+      <c r="AT13" s="1" t="n">
+        <v>1.61184</v>
+      </c>
+      <c r="AU13" s="1" t="n">
+        <v>0.00114</v>
+      </c>
+      <c r="AV13" s="2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AW13" s="1" t="n">
+        <v>1.61069</v>
+      </c>
+      <c r="AX13" s="1" t="n">
+        <v>1.61452</v>
+      </c>
+      <c r="AY13" s="1" t="n">
+        <v>1.6085</v>
+      </c>
+      <c r="AZ13" s="3" t="n">
+        <v>424416</v>
+      </c>
+      <c r="BA13" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7426,6 +7841,37 @@
           <t>02/19/26</t>
         </is>
       </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="AT14" s="1" t="n">
+        <v>155.072</v>
+      </c>
+      <c r="AU14" s="1" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="AV14" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AW14" s="1" t="n">
+        <v>154.988</v>
+      </c>
+      <c r="AX14" s="1" t="n">
+        <v>155.644</v>
+      </c>
+      <c r="AY14" s="1" t="n">
+        <v>154.719</v>
+      </c>
+      <c r="AZ14" s="3" t="n">
+        <v>542835</v>
+      </c>
+      <c r="BA14" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7552,6 +7998,37 @@
           <t>02/19/26</t>
         </is>
       </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>EURCHF</t>
+        </is>
+      </c>
+      <c r="AT15" s="1" t="n">
+        <v>0.91411</v>
+      </c>
+      <c r="AU15" s="1" t="n">
+        <v>0.00156</v>
+      </c>
+      <c r="AV15" s="2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AW15" s="1" t="n">
+        <v>0.91256</v>
+      </c>
+      <c r="AX15" s="1" t="n">
+        <v>0.91431</v>
+      </c>
+      <c r="AY15" s="1" t="n">
+        <v>0.91159</v>
+      </c>
+      <c r="AZ15" s="3" t="n">
+        <v>401340</v>
+      </c>
+      <c r="BA15" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7676,6 +8153,37 @@
       <c r="AP16" s="4" t="inlineStr">
         <is>
           <t>02/19/26</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>USDCHF</t>
+        </is>
+      </c>
+      <c r="AT16" s="1" t="n">
+        <v>0.7758699999999999</v>
+      </c>
+      <c r="AU16" s="1" t="n">
+        <v>0.00082</v>
+      </c>
+      <c r="AV16" s="2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AW16" s="1" t="n">
+        <v>0.77506</v>
+      </c>
+      <c r="AX16" s="1" t="n">
+        <v>0.77718</v>
+      </c>
+      <c r="AY16" s="1" t="n">
+        <v>0.7730900000000001</v>
+      </c>
+      <c r="AZ16" s="3" t="n">
+        <v>367643</v>
+      </c>
+      <c r="BA16" s="4" t="inlineStr">
+        <is>
+          <t>15:59 CT</t>
         </is>
       </c>
     </row>

--- a/outputs/february.xlsx
+++ b/outputs/february.xlsx
@@ -6137,9 +6137,7 @@
       <c r="AY3" s="1" t="n">
         <v>97.59</v>
       </c>
-      <c r="AZ3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AZ3" s="3" t="n"/>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>02/20/26</t>

--- a/outputs/february.xlsx
+++ b/outputs/february.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Week1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Week2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Week3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Week4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8188,4 +8189,1075 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Latest</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>%Change</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Latest</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>%Change</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>64647.16</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>-3145.89</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>-4.64</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>67679.28</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>68648.8</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>63941.48</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>203266577</v>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>02/23/26</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>63970.71</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>-676.45</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>64602.92</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>64989.95</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>62648.17</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>248304038</v>
+      </c>
+      <c r="T2" s="4" t="inlineStr">
+        <is>
+          <t>02/24/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DXY</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>97.72</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>97.84999999999999</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>97.36</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v/>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>02/24/26</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>DXY</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>97.86</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>97.98999999999999</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>97.69</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v/>
+      </c>
+      <c r="T3" s="4" t="inlineStr">
+        <is>
+          <t>17:38 ET</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EURGBP</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.87346</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>-0.00061</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.8744499999999999</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.87495</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.87278</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>474314</v>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>02/23/26</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>EURGBP</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>0.87278</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>-0.00068</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>0.87346</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>0.87436</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>0.87076</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>425239</v>
+      </c>
+      <c r="T4" s="4" t="inlineStr">
+        <is>
+          <t>02/24/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AUDCHF</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.5467</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>-0.0029</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.5485</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.5491</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.5454</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>748734</v>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>02/23/26</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>AUDCHF</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>0.5463</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>-0.0004</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>0.5467</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>0.5486</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>0.5442</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>689516</v>
+      </c>
+      <c r="T5" s="4" t="inlineStr">
+        <is>
+          <t>02/24/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1.36968</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.00151</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1.36735</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1.37041</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>1.36489</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>318677</v>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>02/23/26</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>1.36992</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>0.00024</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>1.36968</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>1.37249</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>1.36922</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>270600</v>
+      </c>
+      <c r="T6" s="4" t="inlineStr">
+        <is>
+          <t>02/24/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.96645</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>-0.00265</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.96839</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0.97075</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.96536</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>318065</v>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>02/23/26</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>0.96689</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>0.00044</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>0.9664</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>0.96911</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>0.96426</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>289019</v>
+      </c>
+      <c r="T7" s="4" t="inlineStr">
+        <is>
+          <t>02/24/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NQZ25</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>25132.79</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>104.54</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>25002.5</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>25160</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>24977.5</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>6987</v>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>NQZ25</t>
+        </is>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>25132.79</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>104.54</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>25002.5</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>25160</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>24977.5</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>6987</v>
+      </c>
+      <c r="T8" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ESZ25</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>6796.54</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>6772.25</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>6802.75</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>6768</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>22237</v>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ESZ25</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>6796.54</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>6772.25</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>6802.75</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>6768</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>22237</v>
+      </c>
+      <c r="T9" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>XAGUSD</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>88.209</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>3.619</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>84.625</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>89.03</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>84.625</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>171760</v>
+      </c>
+      <c r="I10" s="4" t="inlineStr">
+        <is>
+          <t>02/23/26</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>XAGUSD</t>
+        </is>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>87.176</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>-1.033</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>88.209</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>88.90600000000001</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>85.124</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>183807</v>
+      </c>
+      <c r="T10" s="4" t="inlineStr">
+        <is>
+          <t>02/24/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>5227.79</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>120.89</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>5107.05</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>5237.53</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>5107.05</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>168423</v>
+      </c>
+      <c r="I11" s="4" t="inlineStr">
+        <is>
+          <t>02/23/26</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>5144.03</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>-83.76000000000001</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>5227.79</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>5249.54</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>5097.57</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>160935</v>
+      </c>
+      <c r="T11" s="4" t="inlineStr">
+        <is>
+          <t>02/24/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CADCHF</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0.5657</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>-0.0014</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.5664</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0.5673</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0.5644</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>271726</v>
+      </c>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>02/23/26</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>CADCHF</t>
+        </is>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>-0.0007</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>0.5657</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>0.5667</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="S12" s="3" t="n">
+        <v>254544</v>
+      </c>
+      <c r="T12" s="4" t="inlineStr">
+        <is>
+          <t>02/24/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EURCAD</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1.61419</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0.00235</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>1.61279</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1.61674</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>1.61235</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>392429</v>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>02/23/26</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>EURCAD</t>
+        </is>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>1.61271</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>-0.00148</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>1.6142</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>1.61621</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>1.61269</v>
+      </c>
+      <c r="S13" s="3" t="n">
+        <v>335461</v>
+      </c>
+      <c r="T13" s="4" t="inlineStr">
+        <is>
+          <t>02/24/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>154.668</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>-0.404</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>155.017</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>155.043</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>154.001</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>498852</v>
+      </c>
+      <c r="I14" s="4" t="inlineStr">
+        <is>
+          <t>02/23/26</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>155.907</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>1.239</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>154.668</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>156.28</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>154.531</v>
+      </c>
+      <c r="S14" s="3" t="n">
+        <v>505291</v>
+      </c>
+      <c r="T14" s="4" t="inlineStr">
+        <is>
+          <t>02/24/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EURCHF</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0.91307</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>-0.00104</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.91351</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0.91495</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0.91217</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>358157</v>
+      </c>
+      <c r="I15" s="4" t="inlineStr">
+        <is>
+          <t>02/23/26</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>EURCHF</t>
+        </is>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>0.91122</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>-0.00185</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>0.91307</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>0.91418</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>0.91101</v>
+      </c>
+      <c r="S15" s="3" t="n">
+        <v>343689</v>
+      </c>
+      <c r="T15" s="4" t="inlineStr">
+        <is>
+          <t>02/24/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>USDCHF</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0.77477</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>-0.0011</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0.77439</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0.77682</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0.77105</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>321451</v>
+      </c>
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>02/23/26</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>USDCHF</t>
+        </is>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>0.77403</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>-0.00074</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>0.77476</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>0.77661</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>0.77306</v>
+      </c>
+      <c r="S16" s="3" t="n">
+        <v>317261</v>
+      </c>
+      <c r="T16" s="4" t="inlineStr">
+        <is>
+          <t>02/24/26</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/outputs/february.xlsx
+++ b/outputs/february.xlsx
@@ -8385,9 +8385,7 @@
       <c r="G3" s="1" t="n">
         <v>97.36</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>02/24/26</t>
@@ -8416,9 +8414,7 @@
       <c r="R3" s="1" t="n">
         <v>97.69</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>

--- a/outputs/february.xlsx
+++ b/outputs/february.xlsx
@@ -8197,7 +8197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:AP16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8296,6 +8296,96 @@
           <t>Time</t>
         </is>
       </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Latest</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>%Change</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>Latest</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>%Change</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8360,6 +8450,68 @@
           <t>02/24/26</t>
         </is>
       </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>68942.27</v>
+      </c>
+      <c r="Y2" s="1" t="n">
+        <v>4971.56</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="AA2" s="1" t="n">
+        <v>64039.42</v>
+      </c>
+      <c r="AB2" s="1" t="n">
+        <v>69565.53</v>
+      </c>
+      <c r="AC2" s="1" t="n">
+        <v>63877.63</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>318503383</v>
+      </c>
+      <c r="AE2" s="4" t="inlineStr">
+        <is>
+          <t>02/25/26</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>BTCUSDT</t>
+        </is>
+      </c>
+      <c r="AI2" s="1" t="n">
+        <v>67475.59</v>
+      </c>
+      <c r="AJ2" s="1" t="n">
+        <v>-1466.68</v>
+      </c>
+      <c r="AK2" s="2" t="n">
+        <v>-2.13</v>
+      </c>
+      <c r="AL2" s="1" t="n">
+        <v>67966.8</v>
+      </c>
+      <c r="AM2" s="1" t="n">
+        <v>69163.10000000001</v>
+      </c>
+      <c r="AN2" s="1" t="n">
+        <v>66597.09</v>
+      </c>
+      <c r="AO2" s="3" t="n">
+        <v>175932477</v>
+      </c>
+      <c r="AP2" s="4" t="inlineStr">
+        <is>
+          <t>02/26/26</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8420,6 +8572,68 @@
           <t>17:38 ET</t>
         </is>
       </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>DXY</t>
+        </is>
+      </c>
+      <c r="X3" s="1" t="n">
+        <v>97.68000000000001</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="Z3" s="2" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="AA3" s="1" t="n">
+        <v>97.84999999999999</v>
+      </c>
+      <c r="AB3" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>97.62</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AE3" s="4" t="inlineStr">
+        <is>
+          <t>17:38 ET</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>DXY</t>
+        </is>
+      </c>
+      <c r="AI3" s="1" t="n">
+        <v>97.79000000000001</v>
+      </c>
+      <c r="AJ3" s="1" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AK3" s="2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AL3" s="1" t="n">
+        <v>97.59</v>
+      </c>
+      <c r="AM3" s="1" t="n">
+        <v>97.98</v>
+      </c>
+      <c r="AN3" s="1" t="n">
+        <v>97.48999999999999</v>
+      </c>
+      <c r="AO3" s="3" t="n">
+        <v/>
+      </c>
+      <c r="AP3" s="4" t="inlineStr">
+        <is>
+          <t>17:38 ET</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8484,6 +8698,68 @@
           <t>02/24/26</t>
         </is>
       </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>EURGBP</t>
+        </is>
+      </c>
+      <c r="X4" s="1" t="n">
+        <v>0.87101</v>
+      </c>
+      <c r="Y4" s="1" t="n">
+        <v>-0.00177</v>
+      </c>
+      <c r="Z4" s="2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AA4" s="1" t="n">
+        <v>0.87278</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>0.87319</v>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>0.87077</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>438230</v>
+      </c>
+      <c r="AE4" s="4" t="inlineStr">
+        <is>
+          <t>02/25/26</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>EURGBP</t>
+        </is>
+      </c>
+      <c r="AI4" s="1" t="n">
+        <v>0.87503</v>
+      </c>
+      <c r="AJ4" s="1" t="n">
+        <v>0.00402</v>
+      </c>
+      <c r="AK4" s="2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AL4" s="1" t="n">
+        <v>0.87102</v>
+      </c>
+      <c r="AM4" s="1" t="n">
+        <v>0.87582</v>
+      </c>
+      <c r="AN4" s="1" t="n">
+        <v>0.87099</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>463272</v>
+      </c>
+      <c r="AP4" s="4" t="inlineStr">
+        <is>
+          <t>02/26/26</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8548,6 +8824,68 @@
           <t>02/24/26</t>
         </is>
       </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>AUDCHF</t>
+        </is>
+      </c>
+      <c r="X5" s="1" t="n">
+        <v>0.5504</v>
+      </c>
+      <c r="Y5" s="1" t="n">
+        <v>0.0041</v>
+      </c>
+      <c r="Z5" s="2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AA5" s="1" t="n">
+        <v>0.5463</v>
+      </c>
+      <c r="AB5" s="1" t="n">
+        <v>0.5508</v>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>0.5461</v>
+      </c>
+      <c r="AD5" s="3" t="n">
+        <v>675547</v>
+      </c>
+      <c r="AE5" s="4" t="inlineStr">
+        <is>
+          <t>02/25/26</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>AUDCHF</t>
+        </is>
+      </c>
+      <c r="AI5" s="1" t="n">
+        <v>0.5501</v>
+      </c>
+      <c r="AJ5" s="1" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="AK5" s="2" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AL5" s="1" t="n">
+        <v>0.5504</v>
+      </c>
+      <c r="AM5" s="1" t="n">
+        <v>0.5518</v>
+      </c>
+      <c r="AN5" s="1" t="n">
+        <v>0.5474</v>
+      </c>
+      <c r="AO5" s="3" t="n">
+        <v>721246</v>
+      </c>
+      <c r="AP5" s="4" t="inlineStr">
+        <is>
+          <t>02/26/26</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8612,6 +8950,68 @@
           <t>02/24/26</t>
         </is>
       </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>1.36752</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>-0.0024</v>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="AA6" s="1" t="n">
+        <v>1.36992</v>
+      </c>
+      <c r="AB6" s="1" t="n">
+        <v>1.37067</v>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>1.36734</v>
+      </c>
+      <c r="AD6" s="3" t="n">
+        <v>273053</v>
+      </c>
+      <c r="AE6" s="4" t="inlineStr">
+        <is>
+          <t>02/25/26</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="AI6" s="1" t="n">
+        <v>1.36817</v>
+      </c>
+      <c r="AJ6" s="1" t="n">
+        <v>0.00065</v>
+      </c>
+      <c r="AK6" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>1.36753</v>
+      </c>
+      <c r="AM6" s="1" t="n">
+        <v>1.37123</v>
+      </c>
+      <c r="AN6" s="1" t="n">
+        <v>1.36594</v>
+      </c>
+      <c r="AO6" s="3" t="n">
+        <v>278040</v>
+      </c>
+      <c r="AP6" s="4" t="inlineStr">
+        <is>
+          <t>02/26/26</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8676,6 +9076,68 @@
           <t>02/24/26</t>
         </is>
       </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="X7" s="1" t="n">
+        <v>0.97417</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>0.00728</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AA7" s="1" t="n">
+        <v>0.9669</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>0.9747400000000001</v>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>0.96689</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>284579</v>
+      </c>
+      <c r="AE7" s="4" t="inlineStr">
+        <is>
+          <t>02/25/26</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="AI7" s="1" t="n">
+        <v>0.97221</v>
+      </c>
+      <c r="AJ7" s="1" t="n">
+        <v>-0.00196</v>
+      </c>
+      <c r="AK7" s="2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AL7" s="1" t="n">
+        <v>0.97415</v>
+      </c>
+      <c r="AM7" s="1" t="n">
+        <v>0.9751300000000001</v>
+      </c>
+      <c r="AN7" s="1" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="AO7" s="3" t="n">
+        <v>296892</v>
+      </c>
+      <c r="AP7" s="4" t="inlineStr">
+        <is>
+          <t>02/26/26</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8740,6 +9202,68 @@
           <t>12/19/25</t>
         </is>
       </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>NQZ25</t>
+        </is>
+      </c>
+      <c r="X8" s="1" t="n">
+        <v>25132.79</v>
+      </c>
+      <c r="Y8" s="1" t="n">
+        <v>104.54</v>
+      </c>
+      <c r="Z8" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AA8" s="1" t="n">
+        <v>25002.5</v>
+      </c>
+      <c r="AB8" s="1" t="n">
+        <v>25160</v>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>24977.5</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>6987</v>
+      </c>
+      <c r="AE8" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>NQZ25</t>
+        </is>
+      </c>
+      <c r="AI8" s="1" t="n">
+        <v>25132.79</v>
+      </c>
+      <c r="AJ8" s="1" t="n">
+        <v>104.54</v>
+      </c>
+      <c r="AK8" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AL8" s="1" t="n">
+        <v>25002.5</v>
+      </c>
+      <c r="AM8" s="1" t="n">
+        <v>25160</v>
+      </c>
+      <c r="AN8" s="1" t="n">
+        <v>24977.5</v>
+      </c>
+      <c r="AO8" s="3" t="n">
+        <v>6987</v>
+      </c>
+      <c r="AP8" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8804,6 +9328,68 @@
           <t>12/19/25</t>
         </is>
       </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>ESZ25</t>
+        </is>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>6796.54</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AA9" s="1" t="n">
+        <v>6772.25</v>
+      </c>
+      <c r="AB9" s="1" t="n">
+        <v>6802.75</v>
+      </c>
+      <c r="AC9" s="1" t="n">
+        <v>6768</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>22237</v>
+      </c>
+      <c r="AE9" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>ESZ25</t>
+        </is>
+      </c>
+      <c r="AI9" s="1" t="n">
+        <v>6796.54</v>
+      </c>
+      <c r="AJ9" s="1" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AL9" s="1" t="n">
+        <v>6772.25</v>
+      </c>
+      <c r="AM9" s="1" t="n">
+        <v>6802.75</v>
+      </c>
+      <c r="AN9" s="1" t="n">
+        <v>6768</v>
+      </c>
+      <c r="AO9" s="3" t="n">
+        <v>22237</v>
+      </c>
+      <c r="AP9" s="4" t="inlineStr">
+        <is>
+          <t>12/19/25</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8868,6 +9454,68 @@
           <t>02/24/26</t>
         </is>
       </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>XAGUSD</t>
+        </is>
+      </c>
+      <c r="X10" s="1" t="n">
+        <v>89.211</v>
+      </c>
+      <c r="Y10" s="1" t="n">
+        <v>2.035</v>
+      </c>
+      <c r="Z10" s="2" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AA10" s="1" t="n">
+        <v>87.175</v>
+      </c>
+      <c r="AB10" s="1" t="n">
+        <v>91.279</v>
+      </c>
+      <c r="AC10" s="1" t="n">
+        <v>86.608</v>
+      </c>
+      <c r="AD10" s="3" t="n">
+        <v>173689</v>
+      </c>
+      <c r="AE10" s="4" t="inlineStr">
+        <is>
+          <t>02/25/26</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>XAGUSD</t>
+        </is>
+      </c>
+      <c r="AI10" s="1" t="n">
+        <v>88.304</v>
+      </c>
+      <c r="AJ10" s="1" t="n">
+        <v>-0.907</v>
+      </c>
+      <c r="AK10" s="2" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="AL10" s="1" t="n">
+        <v>89.21299999999999</v>
+      </c>
+      <c r="AM10" s="1" t="n">
+        <v>90.328</v>
+      </c>
+      <c r="AN10" s="1" t="n">
+        <v>85.31999999999999</v>
+      </c>
+      <c r="AO10" s="3" t="n">
+        <v>184343</v>
+      </c>
+      <c r="AP10" s="4" t="inlineStr">
+        <is>
+          <t>02/26/26</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8932,6 +9580,68 @@
           <t>02/24/26</t>
         </is>
       </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="X11" s="1" t="n">
+        <v>5165.06</v>
+      </c>
+      <c r="Y11" s="1" t="n">
+        <v>21.03</v>
+      </c>
+      <c r="Z11" s="2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AA11" s="1" t="n">
+        <v>5144.02</v>
+      </c>
+      <c r="AB11" s="1" t="n">
+        <v>5217.59</v>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>5127.41</v>
+      </c>
+      <c r="AD11" s="3" t="n">
+        <v>148176</v>
+      </c>
+      <c r="AE11" s="4" t="inlineStr">
+        <is>
+          <t>02/25/26</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="AI11" s="1" t="n">
+        <v>5185.28</v>
+      </c>
+      <c r="AJ11" s="1" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="AK11" s="2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AL11" s="1" t="n">
+        <v>5165.06</v>
+      </c>
+      <c r="AM11" s="1" t="n">
+        <v>5205.51</v>
+      </c>
+      <c r="AN11" s="1" t="n">
+        <v>5132.43</v>
+      </c>
+      <c r="AO11" s="3" t="n">
+        <v>152218</v>
+      </c>
+      <c r="AP11" s="4" t="inlineStr">
+        <is>
+          <t>02/26/26</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8996,6 +9706,68 @@
           <t>02/24/26</t>
         </is>
       </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>CADCHF</t>
+        </is>
+      </c>
+      <c r="X12" s="1" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="Y12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="AB12" s="1" t="n">
+        <v>0.5661</v>
+      </c>
+      <c r="AC12" s="1" t="n">
+        <v>0.5643</v>
+      </c>
+      <c r="AD12" s="3" t="n">
+        <v>249616</v>
+      </c>
+      <c r="AE12" s="4" t="inlineStr">
+        <is>
+          <t>02/25/26</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>CADCHF</t>
+        </is>
+      </c>
+      <c r="AI12" s="1" t="n">
+        <v>0.5658</v>
+      </c>
+      <c r="AJ12" s="1" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="AK12" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AL12" s="1" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="AM12" s="1" t="n">
+        <v>0.5668</v>
+      </c>
+      <c r="AN12" s="1" t="n">
+        <v>0.5641</v>
+      </c>
+      <c r="AO12" s="3" t="n">
+        <v>254748</v>
+      </c>
+      <c r="AP12" s="4" t="inlineStr">
+        <is>
+          <t>02/26/26</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9060,6 +9832,68 @@
           <t>02/24/26</t>
         </is>
       </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>EURCAD</t>
+        </is>
+      </c>
+      <c r="X13" s="1" t="n">
+        <v>1.61501</v>
+      </c>
+      <c r="Y13" s="1" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="Z13" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AA13" s="1" t="n">
+        <v>1.61272</v>
+      </c>
+      <c r="AB13" s="1" t="n">
+        <v>1.61659</v>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>1.61269</v>
+      </c>
+      <c r="AD13" s="3" t="n">
+        <v>342835</v>
+      </c>
+      <c r="AE13" s="4" t="inlineStr">
+        <is>
+          <t>02/25/26</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>EURCAD</t>
+        </is>
+      </c>
+      <c r="AI13" s="1" t="n">
+        <v>1.61406</v>
+      </c>
+      <c r="AJ13" s="1" t="n">
+        <v>-0.00095</v>
+      </c>
+      <c r="AK13" s="2" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AL13" s="1" t="n">
+        <v>1.61501</v>
+      </c>
+      <c r="AM13" s="1" t="n">
+        <v>1.61713</v>
+      </c>
+      <c r="AN13" s="1" t="n">
+        <v>1.61242</v>
+      </c>
+      <c r="AO13" s="3" t="n">
+        <v>321705</v>
+      </c>
+      <c r="AP13" s="4" t="inlineStr">
+        <is>
+          <t>02/26/26</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9124,6 +9958,68 @@
           <t>02/24/26</t>
         </is>
       </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="X14" s="1" t="n">
+        <v>156.368</v>
+      </c>
+      <c r="Y14" s="1" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="Z14" s="2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA14" s="1" t="n">
+        <v>155.907</v>
+      </c>
+      <c r="AB14" s="1" t="n">
+        <v>156.826</v>
+      </c>
+      <c r="AC14" s="1" t="n">
+        <v>155.352</v>
+      </c>
+      <c r="AD14" s="3" t="n">
+        <v>518409</v>
+      </c>
+      <c r="AE14" s="4" t="inlineStr">
+        <is>
+          <t>02/25/26</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="AI14" s="1" t="n">
+        <v>156.136</v>
+      </c>
+      <c r="AJ14" s="1" t="n">
+        <v>-0.232</v>
+      </c>
+      <c r="AK14" s="2" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="AL14" s="1" t="n">
+        <v>156.369</v>
+      </c>
+      <c r="AM14" s="1" t="n">
+        <v>156.433</v>
+      </c>
+      <c r="AN14" s="1" t="n">
+        <v>155.715</v>
+      </c>
+      <c r="AO14" s="3" t="n">
+        <v>487136</v>
+      </c>
+      <c r="AP14" s="4" t="inlineStr">
+        <is>
+          <t>02/26/26</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9188,6 +10084,68 @@
           <t>02/24/26</t>
         </is>
       </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>EURCHF</t>
+        </is>
+      </c>
+      <c r="X15" s="1" t="n">
+        <v>0.91251</v>
+      </c>
+      <c r="Y15" s="1" t="n">
+        <v>0.00129</v>
+      </c>
+      <c r="Z15" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AA15" s="1" t="n">
+        <v>0.91123</v>
+      </c>
+      <c r="AB15" s="1" t="n">
+        <v>0.91332</v>
+      </c>
+      <c r="AC15" s="1" t="n">
+        <v>0.91093</v>
+      </c>
+      <c r="AD15" s="3" t="n">
+        <v>335569</v>
+      </c>
+      <c r="AE15" s="4" t="inlineStr">
+        <is>
+          <t>02/25/26</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>EURCHF</t>
+        </is>
+      </c>
+      <c r="AI15" s="1" t="n">
+        <v>0.9132400000000001</v>
+      </c>
+      <c r="AJ15" s="1" t="n">
+        <v>0.00073</v>
+      </c>
+      <c r="AK15" s="2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AL15" s="1" t="n">
+        <v>0.91251</v>
+      </c>
+      <c r="AM15" s="1" t="n">
+        <v>0.91513</v>
+      </c>
+      <c r="AN15" s="1" t="n">
+        <v>0.91188</v>
+      </c>
+      <c r="AO15" s="3" t="n">
+        <v>328946</v>
+      </c>
+      <c r="AP15" s="4" t="inlineStr">
+        <is>
+          <t>02/26/26</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9250,6 +10208,68 @@
       <c r="T16" s="4" t="inlineStr">
         <is>
           <t>02/24/26</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>USDCHF</t>
+        </is>
+      </c>
+      <c r="X16" s="1" t="n">
+        <v>0.77266</v>
+      </c>
+      <c r="Y16" s="1" t="n">
+        <v>-0.00137</v>
+      </c>
+      <c r="Z16" s="2" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="AA16" s="1" t="n">
+        <v>0.77404</v>
+      </c>
+      <c r="AB16" s="1" t="n">
+        <v>0.77578</v>
+      </c>
+      <c r="AC16" s="1" t="n">
+        <v>0.77188</v>
+      </c>
+      <c r="AD16" s="3" t="n">
+        <v>306948</v>
+      </c>
+      <c r="AE16" s="4" t="inlineStr">
+        <is>
+          <t>02/25/26</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>USDCHF</t>
+        </is>
+      </c>
+      <c r="AI16" s="1" t="n">
+        <v>0.77411</v>
+      </c>
+      <c r="AJ16" s="1" t="n">
+        <v>0.00145</v>
+      </c>
+      <c r="AK16" s="2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AL16" s="1" t="n">
+        <v>0.77266</v>
+      </c>
+      <c r="AM16" s="1" t="n">
+        <v>0.7754</v>
+      </c>
+      <c r="AN16" s="1" t="n">
+        <v>0.77105</v>
+      </c>
+      <c r="AO16" s="3" t="n">
+        <v>304936</v>
+      </c>
+      <c r="AP16" s="4" t="inlineStr">
+        <is>
+          <t>02/26/26</t>
         </is>
       </c>
     </row>
